--- a/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Analytical_model_data.xlsx
+++ b/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Analytical_model_data.xlsx
@@ -366,7 +366,7 @@
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -386,13 +386,13 @@
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>-800500</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-16010</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.4461359288869473E-17</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -400,13 +400,13 @@
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D3">
-        <v>-800450</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>-16009</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.9837430534156448E-3</v>
+        <v>0.45</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -414,1161 +414,1161 @@
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4">
-        <v>-800400</v>
+        <v>39500</v>
       </c>
       <c r="E4">
-        <v>-16008</v>
+        <v>790</v>
       </c>
       <c r="F4">
-        <v>7.8570047810431367E-18</v>
+        <v>5.2200744691209783E-9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5">
-        <v>-800350</v>
+        <v>39550</v>
       </c>
       <c r="E5">
-        <v>-16007</v>
+        <v>791</v>
       </c>
       <c r="F5">
-        <v>-3.9048502831011953E-4</v>
+        <v>3.6010605520719808E-23</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6">
-        <v>-800300</v>
+        <v>39600</v>
       </c>
       <c r="E6">
-        <v>-16006</v>
+        <v>792</v>
       </c>
       <c r="F6">
-        <v>-9.3641996810562065E-18</v>
+        <v>9.307666731131497E-7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7">
-        <v>-800250</v>
+        <v>39650</v>
       </c>
       <c r="E7">
-        <v>-16005</v>
+        <v>793</v>
       </c>
       <c r="F7">
-        <v>1.6365179977311675E-3</v>
+        <v>3.8431663688220731E-21</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8">
-        <v>-800200</v>
+        <v>39700</v>
       </c>
       <c r="E8">
-        <v>-16004</v>
+        <v>794</v>
       </c>
       <c r="F8">
-        <v>6.1681249228169297E-18</v>
+        <v>1.0266040090486617E-4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9">
-        <v>-800150</v>
+        <v>39750</v>
       </c>
       <c r="E9">
-        <v>-16003</v>
+        <v>795</v>
       </c>
       <c r="F9">
-        <v>2.8240864935294464E-3</v>
+        <v>2.1087142675278316E-19</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>-800100</v>
+        <v>39800</v>
       </c>
       <c r="E10">
-        <v>-16002</v>
+        <v>796</v>
       </c>
       <c r="F10">
-        <v>1.7629197320546392E-17</v>
+        <v>5.9873004755993881E-3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11">
-        <v>-800050</v>
+        <v>39850</v>
       </c>
       <c r="E11">
-        <v>-16001</v>
+        <v>797</v>
       </c>
       <c r="F11">
-        <v>3.3330885825448098E-3</v>
+        <v>4.0438133651678575E-18</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12">
-        <v>-800000</v>
+        <v>39900</v>
       </c>
       <c r="E12">
-        <v>-16000</v>
+        <v>798</v>
       </c>
       <c r="F12">
-        <v>4.1174535402853787E-18</v>
+        <v>0.13415495908977204</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13">
-        <v>-799950</v>
+        <v>39950</v>
       </c>
       <c r="E13">
-        <v>-15999</v>
+        <v>799</v>
       </c>
       <c r="F13">
-        <v>3.3330885825448098E-3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>-799900</v>
+        <v>40000</v>
       </c>
       <c r="E14">
-        <v>-15998</v>
+        <v>800</v>
       </c>
       <c r="F14">
-        <v>3.9655672268122034E-18</v>
+        <v>0.35612806042162692</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15">
-        <v>-799850</v>
+        <v>40050</v>
       </c>
       <c r="E15">
-        <v>-15997</v>
+        <v>801</v>
       </c>
       <c r="F15">
-        <v>2.8240864935294464E-3</v>
+        <v>4.2441438431857801E-17</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16">
-        <v>-799800</v>
+        <v>40100</v>
       </c>
       <c r="E16">
-        <v>-15996</v>
+        <v>802</v>
       </c>
       <c r="F16">
-        <v>4.1120832818779531E-18</v>
+        <v>0.13415495908977204</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17">
-        <v>-799750</v>
+        <v>40150</v>
       </c>
       <c r="E17">
-        <v>-15995</v>
+        <v>803</v>
       </c>
       <c r="F17">
-        <v>1.6365179977311675E-3</v>
+        <v>8.0876267303357149E-18</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18">
-        <v>-799700</v>
+        <v>40200</v>
       </c>
       <c r="E18">
-        <v>-15994</v>
+        <v>804</v>
       </c>
       <c r="F18">
-        <v>4.0942506331450584E-18</v>
+        <v>5.9873004755993881E-3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19">
-        <v>-799650</v>
+        <v>40250</v>
       </c>
       <c r="E19">
-        <v>-15993</v>
+        <v>805</v>
       </c>
       <c r="F19">
-        <v>-3.9048502831011953E-4</v>
+        <v>3.1630714012917474E-19</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20">
-        <v>-799600</v>
+        <v>40300</v>
       </c>
       <c r="E20">
-        <v>-15992</v>
+        <v>806</v>
       </c>
       <c r="F20">
-        <v>3.3672877633042008E-18</v>
+        <v>1.0266040090486617E-4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21">
-        <v>-799550</v>
+        <v>40350</v>
       </c>
       <c r="E21">
-        <v>-15991</v>
+        <v>807</v>
       </c>
       <c r="F21">
-        <v>-2.9837430534156448E-3</v>
+        <v>5.1242218250960979E-21</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22">
-        <v>-799500</v>
+        <v>40400</v>
       </c>
       <c r="E22">
-        <v>-15990</v>
+        <v>808</v>
       </c>
       <c r="F22">
-        <v>1.6429588234568121E-18</v>
+        <v>9.307666731131497E-7</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23">
-        <v>-760500</v>
+        <v>40450</v>
       </c>
       <c r="E23">
-        <v>-15210</v>
+        <v>809</v>
       </c>
       <c r="F23">
-        <v>5.0788830183742389E-3</v>
+        <v>4.5013256900899761E-23</v>
       </c>
       <c r="G23">
-        <v>269.99999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
-        <v>-760450</v>
+        <v>40500</v>
       </c>
       <c r="E24">
-        <v>-15209</v>
+        <v>810</v>
       </c>
       <c r="F24">
-        <v>-5.7471077281663051E-18</v>
+        <v>5.2200744691209783E-9</v>
       </c>
       <c r="G24">
-        <v>269.99999999999989</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
-        <v>-760400</v>
+        <v>79500</v>
       </c>
       <c r="E25">
-        <v>-15208</v>
+        <v>1590</v>
       </c>
       <c r="F25">
-        <v>2.8325870986500635E-3</v>
+        <v>1.1409480433785626E-21</v>
       </c>
       <c r="G25">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26">
-        <v>-760350</v>
+        <v>79550</v>
       </c>
       <c r="E26">
-        <v>-15207</v>
+        <v>1591</v>
       </c>
       <c r="F26">
-        <v>9.8804777277535821E-18</v>
+        <v>1.6171270440685422E-5</v>
       </c>
       <c r="G26">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27">
-        <v>-760300</v>
+        <v>79600</v>
       </c>
       <c r="E27">
-        <v>-15206</v>
+        <v>1592</v>
       </c>
       <c r="F27">
-        <v>2.0604201962690706E-4</v>
+        <v>3.6967323524225926E-20</v>
       </c>
       <c r="G27">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28">
-        <v>-760250</v>
+        <v>79650</v>
       </c>
       <c r="E28">
-        <v>-15205</v>
+        <v>1593</v>
       </c>
       <c r="F28">
-        <v>-7.5409530573692761E-18</v>
+        <v>5.532235370990299E-4</v>
       </c>
       <c r="G28">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29">
-        <v>-760200</v>
+        <v>79700</v>
       </c>
       <c r="E29">
-        <v>-15204</v>
+        <v>1594</v>
       </c>
       <c r="F29">
-        <v>-1.7043308953031589E-3</v>
+        <v>6.4628502279910426E-19</v>
       </c>
       <c r="G29">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30">
-        <v>-760150</v>
+        <v>79750</v>
       </c>
       <c r="E30">
-        <v>-15203</v>
+        <v>1595</v>
       </c>
       <c r="F30">
-        <v>-2.2655675294070641E-17</v>
+        <v>1.0645592436763862E-2</v>
       </c>
       <c r="G30">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31">
-        <v>-760100</v>
+        <v>79800</v>
       </c>
       <c r="E31">
-        <v>-15202</v>
+        <v>1596</v>
       </c>
       <c r="F31">
-        <v>-2.7371676666030414E-3</v>
+        <v>4.287785108319799E-18</v>
       </c>
       <c r="G31">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32">
-        <v>-760050</v>
+        <v>79850</v>
       </c>
       <c r="E32">
-        <v>-15201</v>
+        <v>1597</v>
       </c>
       <c r="F32">
-        <v>-5.163308868155739E-18</v>
+        <v>8.8419298273681377E-2</v>
       </c>
       <c r="G32">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33">
-        <v>-760000</v>
+        <v>79900</v>
       </c>
       <c r="E33">
-        <v>-15200</v>
+        <v>1598</v>
       </c>
       <c r="F33">
-        <v>-3.0510965402009049E-3</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34">
-        <v>-759950</v>
+        <v>79950</v>
       </c>
       <c r="E34">
-        <v>-15199</v>
+        <v>1599</v>
       </c>
       <c r="F34">
-        <v>-4.6469779813401655E-18</v>
+        <v>0.12749264030929783</v>
       </c>
       <c r="G34">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35">
-        <v>-759900</v>
+        <v>80000</v>
       </c>
       <c r="E35">
-        <v>-15198</v>
+        <v>1600</v>
       </c>
       <c r="F35">
-        <v>-2.7371676666030414E-3</v>
+        <v>7.6462734391813716E-18</v>
       </c>
       <c r="G35">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36">
-        <v>-759850</v>
+        <v>80050</v>
       </c>
       <c r="E36">
-        <v>-15197</v>
+        <v>1601</v>
       </c>
       <c r="F36">
-        <v>-4.5299902486330253E-18</v>
+        <v>0.12749264030929783</v>
       </c>
       <c r="G36">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37">
-        <v>-759800</v>
+        <v>80100</v>
       </c>
       <c r="E37">
-        <v>-15196</v>
+        <v>1602</v>
       </c>
       <c r="F37">
-        <v>-1.7043308953031589E-3</v>
+        <v>3.7380912180906256E-17</v>
       </c>
       <c r="G37">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38">
-        <v>-759750</v>
+        <v>80150</v>
       </c>
       <c r="E38">
-        <v>-15195</v>
+        <v>1603</v>
       </c>
       <c r="F38">
-        <v>-4.3988892834654117E-18</v>
+        <v>8.8419298273681377E-2</v>
       </c>
       <c r="G38">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39">
-        <v>-759700</v>
+        <v>80200</v>
       </c>
       <c r="E39">
-        <v>-15194</v>
+        <v>1604</v>
       </c>
       <c r="F39">
-        <v>2.0604201962690706E-4</v>
+        <v>1.2863355324959396E-17</v>
       </c>
       <c r="G39">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40">
-        <v>-759650</v>
+        <v>80250</v>
       </c>
       <c r="E40">
-        <v>-15193</v>
+        <v>1605</v>
       </c>
       <c r="F40">
-        <v>-3.7028397120762156E-18</v>
+        <v>1.0645592436763862E-2</v>
       </c>
       <c r="G40">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41">
-        <v>-759600</v>
+        <v>80300</v>
       </c>
       <c r="E41">
-        <v>-15192</v>
+        <v>1606</v>
       </c>
       <c r="F41">
-        <v>2.8325870986500635E-3</v>
+        <v>1.2925700455982085E-18</v>
       </c>
       <c r="G41">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42">
-        <v>-759550</v>
+        <v>80350</v>
       </c>
       <c r="E42">
-        <v>-15191</v>
+        <v>1607</v>
       </c>
       <c r="F42">
-        <v>-2.0525384743451087E-18</v>
+        <v>5.532235370990299E-4</v>
       </c>
       <c r="G42">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43">
-        <v>-759500</v>
+        <v>80400</v>
       </c>
       <c r="E43">
-        <v>-15190</v>
+        <v>1608</v>
       </c>
       <c r="F43">
-        <v>5.0788830183742389E-3</v>
+        <v>6.1612205873709894E-20</v>
       </c>
       <c r="G43">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44">
-        <v>-720500</v>
+        <v>80450</v>
       </c>
       <c r="E44">
-        <v>-14410</v>
+        <v>1609</v>
       </c>
       <c r="F44">
-        <v>5.7524336999494867E-19</v>
+        <v>1.6171270440685422E-5</v>
       </c>
       <c r="G44">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45">
-        <v>-720450</v>
+        <v>80500</v>
       </c>
       <c r="E45">
-        <v>-14409</v>
+        <v>1610</v>
       </c>
       <c r="F45">
-        <v>-5.2327761212552244E-3</v>
+        <v>1.7114220650678439E-21</v>
       </c>
       <c r="G45">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46">
-        <v>-720400</v>
+        <v>119500</v>
       </c>
       <c r="E46">
-        <v>-14408</v>
+        <v>2390</v>
       </c>
       <c r="F46">
-        <v>-7.9151334169664827E-18</v>
+        <v>7.0930448404292931E-5</v>
       </c>
       <c r="G46">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47">
-        <v>-720350</v>
+        <v>119550</v>
       </c>
       <c r="E47">
-        <v>-14407</v>
+        <v>2391</v>
       </c>
       <c r="F47">
-        <v>-2.6945038939041343E-3</v>
+        <v>1.176819794797286E-19</v>
       </c>
       <c r="G47">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48">
-        <v>-720300</v>
+        <v>119600</v>
       </c>
       <c r="E48">
-        <v>-14406</v>
+        <v>2392</v>
       </c>
       <c r="F48">
-        <v>8.1111344452249231E-18</v>
+        <v>1.2885304552132039E-3</v>
       </c>
       <c r="G48">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49">
-        <v>-720250</v>
+        <v>119650</v>
       </c>
       <c r="E49">
-        <v>-14405</v>
+        <v>2393</v>
       </c>
       <c r="F49">
-        <v>-9.1733507747547197E-5</v>
+        <v>1.1121617916607389E-18</v>
       </c>
       <c r="G49">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50">
-        <v>-720200</v>
+        <v>119700</v>
       </c>
       <c r="E50">
-        <v>-14404</v>
+        <v>2394</v>
       </c>
       <c r="F50">
-        <v>2.7220581334833003E-17</v>
+        <v>1.3700430140976799E-2</v>
       </c>
       <c r="G50">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51">
-        <v>-720150</v>
+        <v>119750</v>
       </c>
       <c r="E51">
-        <v>-14403</v>
+        <v>2395</v>
       </c>
       <c r="F51">
-        <v>1.6547798362131401E-3</v>
+        <v>4.1911751814100941E-18</v>
       </c>
       <c r="G51">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52">
-        <v>-720100</v>
+        <v>119800</v>
       </c>
       <c r="E52">
-        <v>-14402</v>
+        <v>2396</v>
       </c>
       <c r="F52">
-        <v>6.3256025670789705E-18</v>
+        <v>6.6993584135588327E-2</v>
       </c>
       <c r="G52">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53">
-        <v>-720050</v>
+        <v>119850</v>
       </c>
       <c r="E53">
-        <v>-14401</v>
+        <v>2397</v>
       </c>
       <c r="F53">
-        <v>2.4667052775862262E-3</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54">
-        <v>-720000</v>
+        <v>119900</v>
       </c>
       <c r="E54">
-        <v>-14400</v>
+        <v>2398</v>
       </c>
       <c r="F54">
-        <v>5.4793613985441065E-18</v>
+        <v>6.3365164264671162E-2</v>
       </c>
       <c r="G54">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55">
-        <v>-719950</v>
+        <v>119950</v>
       </c>
       <c r="E55">
-        <v>-14399</v>
+        <v>2399</v>
       </c>
       <c r="F55">
-        <v>2.4667052775862262E-3</v>
+        <v>3.9657642785670995E-18</v>
       </c>
       <c r="G55">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56">
-        <v>-719900</v>
+        <v>120000</v>
       </c>
       <c r="E56">
-        <v>-14398</v>
+        <v>2400</v>
       </c>
       <c r="F56">
-        <v>5.0604820536631764E-18</v>
+        <v>7.8635985715017648E-2</v>
       </c>
       <c r="G56">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57">
-        <v>-719850</v>
+        <v>120050</v>
       </c>
       <c r="E57">
-        <v>-14397</v>
+        <v>2401</v>
       </c>
       <c r="F57">
-        <v>1.6547798362131401E-3</v>
+        <v>7.9315285571341991E-18</v>
       </c>
       <c r="G57">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58">
-        <v>-719800</v>
+        <v>120100</v>
       </c>
       <c r="E58">
-        <v>-14396</v>
+        <v>2402</v>
       </c>
       <c r="F58">
-        <v>4.7623981897392027E-18</v>
+        <v>6.3365164264671162E-2</v>
       </c>
       <c r="G58">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59">
-        <v>-719750</v>
+        <v>120150</v>
       </c>
       <c r="E59">
-        <v>-14395</v>
+        <v>2403</v>
       </c>
       <c r="F59">
-        <v>-9.1733507747547197E-5</v>
+        <v>3.3853586035657247E-17</v>
       </c>
       <c r="G59">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60">
-        <v>-719700</v>
+        <v>120200</v>
       </c>
       <c r="E60">
-        <v>-14394</v>
+        <v>2404</v>
       </c>
       <c r="F60">
-        <v>4.0555672226124615E-18</v>
+        <v>6.6993584135588327E-2</v>
       </c>
       <c r="G60">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61">
-        <v>-719650</v>
+        <v>120250</v>
       </c>
       <c r="E61">
-        <v>-14393</v>
+        <v>2405</v>
       </c>
       <c r="F61">
-        <v>-2.6945038939041343E-3</v>
+        <v>1.6764700725640376E-17</v>
       </c>
       <c r="G61">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62">
-        <v>-719600</v>
+        <v>120300</v>
       </c>
       <c r="E62">
-        <v>-14392</v>
+        <v>2406</v>
       </c>
       <c r="F62">
-        <v>2.4719174475743829E-18</v>
+        <v>1.3700430140976799E-2</v>
       </c>
       <c r="G62">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63">
-        <v>-719550</v>
+        <v>120350</v>
       </c>
       <c r="E63">
-        <v>-14391</v>
+        <v>2407</v>
       </c>
       <c r="F63">
-        <v>-5.2327761212552244E-3</v>
+        <v>2.7804044791518468E-18</v>
       </c>
       <c r="G63">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64">
-        <v>-719500</v>
+        <v>120400</v>
       </c>
       <c r="E64">
-        <v>-14390</v>
+        <v>2408</v>
       </c>
       <c r="F64">
-        <v>1.6435524856998532E-19</v>
+        <v>1.2885304552132039E-3</v>
       </c>
       <c r="G64">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65">
-        <v>-680500</v>
+        <v>120450</v>
       </c>
       <c r="E65">
-        <v>-13610</v>
+        <v>2409</v>
       </c>
       <c r="F65">
-        <v>6.2361726511394721E-3</v>
+        <v>2.3536395895945721E-19</v>
       </c>
       <c r="G65">
-        <v>90.000000000000099</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66">
-        <v>-680450</v>
+        <v>120500</v>
       </c>
       <c r="E66">
-        <v>-13609</v>
+        <v>2410</v>
       </c>
       <c r="F66">
-        <v>2.2982864295655645E-18</v>
+        <v>7.0930448404292931E-5</v>
       </c>
       <c r="G66">
-        <v>90.000000000000099</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67">
-        <v>-680400</v>
+        <v>159500</v>
       </c>
       <c r="E67">
-        <v>-13608</v>
+        <v>3190</v>
       </c>
       <c r="F67">
-        <v>5.3582419891605605E-3</v>
+        <v>2.4839027566773312E-19</v>
       </c>
       <c r="G67">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68">
-        <v>-680350</v>
+        <v>159550</v>
       </c>
       <c r="E68">
-        <v>-13607</v>
+        <v>3191</v>
       </c>
       <c r="F68">
-        <v>-6.9649412659229934E-18</v>
+        <v>2.2055045641650767E-3</v>
       </c>
       <c r="G68">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69">
-        <v>-680300</v>
+        <v>159600</v>
       </c>
       <c r="E69">
-        <v>-13606</v>
+        <v>3192</v>
       </c>
       <c r="F69">
-        <v>2.5973965858130913E-3</v>
+        <v>1.5538936365924203E-18</v>
       </c>
       <c r="G69">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70">
-        <v>-680250</v>
+        <v>159650</v>
       </c>
       <c r="E70">
-        <v>-13605</v>
+        <v>3193</v>
       </c>
       <c r="F70">
-        <v>-2.9576946422963632E-17</v>
+        <v>1.5745057252236863E-2</v>
       </c>
       <c r="G70">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71">
-        <v>-680200</v>
+        <v>159700</v>
       </c>
       <c r="E71">
-        <v>-13604</v>
+        <v>3194</v>
       </c>
       <c r="F71">
-        <v>8.5733148390235403E-5</v>
+        <v>3.9968150791984892E-18</v>
       </c>
       <c r="G71">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72">
-        <v>-680150</v>
+        <v>159750</v>
       </c>
       <c r="E72">
-        <v>-13603</v>
+        <v>3195</v>
       </c>
       <c r="F72">
-        <v>-7.4273177066708402E-18</v>
+        <v>5.3511687023914283E-2</v>
       </c>
       <c r="G72">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73">
-        <v>-680100</v>
+        <v>159800</v>
       </c>
       <c r="E73">
-        <v>-13602</v>
+        <v>3196</v>
       </c>
       <c r="F73">
-        <v>-1.4283896273868944E-3</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74">
-        <v>-680050</v>
+        <v>159850</v>
       </c>
       <c r="E74">
-        <v>-13601</v>
+        <v>3197</v>
       </c>
       <c r="F74">
-        <v>-6.422557314293524E-18</v>
+        <v>3.4190420939178075E-2</v>
       </c>
       <c r="G74">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75">
-        <v>-680000</v>
+        <v>159900</v>
       </c>
       <c r="E75">
-        <v>-13600</v>
+        <v>3198</v>
       </c>
       <c r="F75">
-        <v>-1.9133132213290216E-3</v>
+        <v>3.1492776740773128E-18</v>
       </c>
       <c r="G75">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76">
-        <v>-679950</v>
+        <v>159950</v>
       </c>
       <c r="E76">
-        <v>-13599</v>
+        <v>3199</v>
       </c>
       <c r="F76">
-        <v>-5.7089398349275763E-18</v>
+        <v>5.2380631077855414E-2</v>
       </c>
       <c r="G76">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77">
-        <v>-679900</v>
+        <v>160000</v>
       </c>
       <c r="E77">
-        <v>-13598</v>
+        <v>3200</v>
       </c>
       <c r="F77">
-        <v>-1.4283896273868944E-3</v>
+        <v>1.7610286673260701E-18</v>
       </c>
       <c r="G77">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78">
-        <v>-679850</v>
+        <v>160050</v>
       </c>
       <c r="E78">
-        <v>-13597</v>
+        <v>3201</v>
       </c>
       <c r="F78">
-        <v>-5.1991223946695888E-18</v>
+        <v>5.2380631077855414E-2</v>
       </c>
       <c r="G78">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79">
-        <v>-679800</v>
+        <v>160100</v>
       </c>
       <c r="E79">
-        <v>-13596</v>
+        <v>3202</v>
       </c>
       <c r="F79">
-        <v>8.5733148390235403E-5</v>
+        <v>9.4478330222319376E-18</v>
       </c>
       <c r="G79">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80">
-        <v>-679750</v>
+        <v>160150</v>
       </c>
       <c r="E80">
-        <v>-13595</v>
+        <v>3203</v>
       </c>
       <c r="F80">
-        <v>-4.4354210526037258E-18</v>
+        <v>3.4190420939178075E-2</v>
       </c>
       <c r="G80">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D81">
-        <v>-679700</v>
+        <v>160200</v>
       </c>
       <c r="E81">
-        <v>-13594</v>
+        <v>3204</v>
       </c>
       <c r="F81">
-        <v>2.5973965858130913E-3</v>
+        <v>3.0367795475920533E-17</v>
       </c>
       <c r="G81">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D82">
-        <v>-679650</v>
+        <v>160250</v>
       </c>
       <c r="E82">
-        <v>-13593</v>
+        <v>3205</v>
       </c>
       <c r="F82">
-        <v>-2.9020588608012475E-18</v>
+        <v>5.3511687023914283E-2</v>
       </c>
       <c r="G82">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D83">
-        <v>-679600</v>
+        <v>160300</v>
       </c>
       <c r="E83">
-        <v>-13592</v>
+        <v>3206</v>
       </c>
       <c r="F83">
-        <v>5.3582419891605605E-3</v>
+        <v>1.9984075395992446E-17</v>
       </c>
       <c r="G83">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D84">
-        <v>-679550</v>
+        <v>160350</v>
       </c>
       <c r="E84">
-        <v>-13591</v>
+        <v>3207</v>
       </c>
       <c r="F84">
-        <v>-5.7420882509332535E-19</v>
+        <v>1.5745057252236863E-2</v>
       </c>
       <c r="G84">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D85">
-        <v>-679500</v>
+        <v>160400</v>
       </c>
       <c r="E85">
-        <v>-13590</v>
+        <v>3208</v>
       </c>
       <c r="F85">
-        <v>6.2361726511394721E-3</v>
+        <v>4.6616809097772607E-18</v>
       </c>
       <c r="G85">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D86">
-        <v>-640500</v>
+        <v>160450</v>
       </c>
       <c r="E86">
-        <v>-12810</v>
+        <v>3209</v>
       </c>
       <c r="F86">
-        <v>6.771276624329863E-18</v>
+        <v>2.2055045641650767E-3</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D87">
-        <v>-640450</v>
+        <v>160500</v>
       </c>
       <c r="E87">
-        <v>-12809</v>
+        <v>3210</v>
       </c>
       <c r="F87">
-        <v>-6.9446763769875708E-3</v>
+        <v>5.7957730989137718E-19</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -1590,1161 +1590,1161 @@
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D88">
-        <v>-640400</v>
+        <v>199500</v>
       </c>
       <c r="E88">
-        <v>-12808</v>
+        <v>3990</v>
       </c>
       <c r="F88">
-        <v>3.0462116018424642E-18</v>
+        <v>3.2243113783865175E-3</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D89">
-        <v>-640350</v>
+        <v>199550</v>
       </c>
       <c r="E89">
-        <v>-12807</v>
+        <v>3991</v>
       </c>
       <c r="F89">
-        <v>-5.4784346199094718E-3</v>
+        <v>1.9514163503094777E-18</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D90">
-        <v>-640300</v>
+        <v>199600</v>
       </c>
       <c r="E90">
-        <v>-12806</v>
+        <v>3992</v>
       </c>
       <c r="F90">
-        <v>2.6770930977058475E-17</v>
+        <v>1.7064154383224762E-2</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D91">
-        <v>-640250</v>
+        <v>199650</v>
       </c>
       <c r="E91">
-        <v>-12805</v>
+        <v>3993</v>
       </c>
       <c r="F91">
-        <v>-2.5798781347977839E-3</v>
+        <v>3.7545322488416213E-18</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D92">
-        <v>-640200</v>
+        <v>199700</v>
       </c>
       <c r="E92">
-        <v>-12804</v>
+        <v>3994</v>
       </c>
       <c r="F92">
-        <v>8.0878207246858739E-18</v>
+        <v>4.3657085663308282E-2</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D93">
-        <v>-640150</v>
+        <v>199750</v>
       </c>
       <c r="E93">
-        <v>-12803</v>
+        <v>3995</v>
       </c>
       <c r="F93">
-        <v>-2.4411778319447178E-4</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D94">
-        <v>-640100</v>
+        <v>199800</v>
       </c>
       <c r="E94">
-        <v>-12802</v>
+        <v>3996</v>
       </c>
       <c r="F94">
-        <v>7.3504096321872184E-18</v>
+        <v>1.7821268907371089E-2</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D95">
-        <v>-640050</v>
+        <v>199850</v>
       </c>
       <c r="E95">
-        <v>-12801</v>
+        <v>3997</v>
       </c>
       <c r="F95">
-        <v>9.3521345869116931E-4</v>
+        <v>2.8518273586045434E-18</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D96">
-        <v>-640000</v>
+        <v>199900</v>
       </c>
       <c r="E96">
-        <v>-12800</v>
+        <v>3998</v>
       </c>
       <c r="F96">
-        <v>6.4526836116761278E-18</v>
+        <v>3.7587835454074001E-2</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D97">
-        <v>-639950</v>
+        <v>199950</v>
       </c>
       <c r="E97">
-        <v>-12799</v>
+        <v>3999</v>
       </c>
       <c r="F97">
-        <v>9.3521345869116931E-4</v>
+        <v>4.9391813365550707E-19</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D98">
-        <v>-639900</v>
+        <v>200000</v>
       </c>
       <c r="E98">
-        <v>-12798</v>
+        <v>4000</v>
       </c>
       <c r="F98">
-        <v>5.7169852694789475E-18</v>
+        <v>3.8158409126662546E-2</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D99">
-        <v>-639850</v>
+        <v>200050</v>
       </c>
       <c r="E99">
-        <v>-12797</v>
+        <v>4001</v>
       </c>
       <c r="F99">
-        <v>-2.4411778319447178E-4</v>
+        <v>7.4087720048326066E-19</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D100">
-        <v>-639800</v>
+        <v>200100</v>
       </c>
       <c r="E100">
-        <v>-12796</v>
+        <v>4002</v>
       </c>
       <c r="F100">
-        <v>4.852692434811524E-18</v>
+        <v>3.7587835454074001E-2</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D101">
-        <v>-639750</v>
+        <v>200150</v>
       </c>
       <c r="E101">
-        <v>-12795</v>
+        <v>4003</v>
       </c>
       <c r="F101">
-        <v>-2.5798781347977839E-3</v>
+        <v>1.1407309434418174E-17</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D102">
-        <v>-639700</v>
+        <v>200200</v>
       </c>
       <c r="E102">
-        <v>-12794</v>
+        <v>4004</v>
       </c>
       <c r="F102">
-        <v>3.3455208987039541E-18</v>
+        <v>1.7821268907371089E-2</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D103">
-        <v>-639650</v>
+        <v>200250</v>
       </c>
       <c r="E103">
-        <v>-12793</v>
+        <v>4005</v>
       </c>
       <c r="F103">
-        <v>-5.4784346199094718E-3</v>
+        <v>2.6609424521816907E-17</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D104">
-        <v>-639600</v>
+        <v>200300</v>
       </c>
       <c r="E104">
-        <v>-12792</v>
+        <v>4006</v>
       </c>
       <c r="F104">
-        <v>1.0154038672808214E-18</v>
+        <v>4.3657085663308282E-2</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D105">
-        <v>-639550</v>
+        <v>200350</v>
       </c>
       <c r="E105">
-        <v>-12791</v>
+        <v>4007</v>
       </c>
       <c r="F105">
-        <v>-6.9446763769875708E-3</v>
+        <v>2.2527193493049726E-17</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D106">
-        <v>-639500</v>
+        <v>200400</v>
       </c>
       <c r="E106">
-        <v>-12790</v>
+        <v>4008</v>
       </c>
       <c r="F106">
-        <v>-1.2688127374445573E-18</v>
+        <v>1.7064154383224762E-2</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D107">
-        <v>-600500</v>
+        <v>200450</v>
       </c>
       <c r="E107">
-        <v>-12010</v>
+        <v>4009</v>
       </c>
       <c r="F107">
-        <v>5.3154371945849889E-3</v>
+        <v>6.8299572260831721E-18</v>
       </c>
       <c r="G107">
-        <v>269.99999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D108">
-        <v>-600450</v>
+        <v>200500</v>
       </c>
       <c r="E108">
-        <v>-12009</v>
+        <v>4010</v>
       </c>
       <c r="F108">
-        <v>4.0050849855576308E-18</v>
+        <v>3.2243113783865175E-3</v>
       </c>
       <c r="G108">
-        <v>269.99999999999989</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D109">
-        <v>-600400</v>
+        <v>239500</v>
       </c>
       <c r="E109">
-        <v>-12008</v>
+        <v>4790</v>
       </c>
       <c r="F109">
-        <v>7.6287720303866513E-3</v>
+        <v>2.2947372212086282E-18</v>
       </c>
       <c r="G109">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D110">
-        <v>-600350</v>
+        <v>239550</v>
       </c>
       <c r="E110">
-        <v>-12007</v>
+        <v>4791</v>
       </c>
       <c r="F110">
-        <v>-1.484974873936776E-17</v>
+        <v>1.7808025964595069E-2</v>
       </c>
       <c r="G110">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D111">
-        <v>-600300</v>
+        <v>239600</v>
       </c>
       <c r="E111">
-        <v>-12006</v>
+        <v>4792</v>
       </c>
       <c r="F111">
-        <v>5.627929490752131E-3</v>
+        <v>3.480547736592897E-18</v>
       </c>
       <c r="G111">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D112">
-        <v>-600250</v>
+        <v>239650</v>
       </c>
       <c r="E112">
-        <v>-12005</v>
+        <v>4793</v>
       </c>
       <c r="F112">
-        <v>-7.6117012160960378E-18</v>
+        <v>3.5801638454614516E-2</v>
       </c>
       <c r="G112">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D113">
-        <v>-600200</v>
+        <v>239700</v>
       </c>
       <c r="E113">
-        <v>-12004</v>
+        <v>4794</v>
       </c>
       <c r="F113">
-        <v>2.6969199289234511E-3</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D114">
-        <v>-600150</v>
+        <v>239750</v>
       </c>
       <c r="E114">
-        <v>-12003</v>
+        <v>4795</v>
       </c>
       <c r="F114">
-        <v>-7.9719238733119852E-18</v>
+        <v>7.5870002824879532E-3</v>
       </c>
       <c r="G114">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D115">
-        <v>-600100</v>
+        <v>239800</v>
       </c>
       <c r="E115">
-        <v>-12002</v>
+        <v>4796</v>
       </c>
       <c r="F115">
-        <v>6.5044048580523031E-4</v>
+        <v>2.6605590493344396E-18</v>
       </c>
       <c r="G115">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D116">
-        <v>-600050</v>
+        <v>239850</v>
       </c>
       <c r="E116">
-        <v>-12001</v>
+        <v>4797</v>
       </c>
       <c r="F116">
-        <v>-7.2063573999452866E-18</v>
+        <v>2.8076832429127677E-2</v>
       </c>
       <c r="G116">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D117">
-        <v>-600000</v>
+        <v>239900</v>
       </c>
       <c r="E117">
-        <v>-12000</v>
+        <v>4798</v>
       </c>
       <c r="F117">
-        <v>-4.3290844601210206E-5</v>
+        <v>4.5674843993145274E-19</v>
       </c>
       <c r="G117">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D118">
-        <v>-599950</v>
+        <v>239950</v>
       </c>
       <c r="E118">
-        <v>-11999</v>
+        <v>4799</v>
       </c>
       <c r="F118">
-        <v>-6.3055627249521254E-18</v>
+        <v>2.8956224569453997E-2</v>
       </c>
       <c r="G118">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D119">
-        <v>-599900</v>
+        <v>240000</v>
       </c>
       <c r="E119">
-        <v>-11998</v>
+        <v>4800</v>
       </c>
       <c r="F119">
-        <v>6.5044048580523031E-4</v>
+        <v>1.8232404288306215E-18</v>
       </c>
       <c r="G119">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D120">
-        <v>-599850</v>
+        <v>240050</v>
       </c>
       <c r="E120">
-        <v>-11997</v>
+        <v>4801</v>
       </c>
       <c r="F120">
-        <v>-5.3146159155413237E-18</v>
+        <v>2.8956224569453997E-2</v>
       </c>
       <c r="G120">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D121">
-        <v>-599800</v>
+        <v>240100</v>
       </c>
       <c r="E121">
-        <v>-11996</v>
+        <v>4802</v>
       </c>
       <c r="F121">
-        <v>2.6969199289234511E-3</v>
+        <v>9.1349687986290549E-19</v>
       </c>
       <c r="G121">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D122">
-        <v>-599750</v>
+        <v>240150</v>
       </c>
       <c r="E122">
-        <v>-11995</v>
+        <v>4803</v>
       </c>
       <c r="F122">
-        <v>-3.8058506080480189E-18</v>
+        <v>2.8076832429127677E-2</v>
       </c>
       <c r="G122">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D123">
-        <v>-599700</v>
+        <v>240200</v>
       </c>
       <c r="E123">
-        <v>-11994</v>
+        <v>4804</v>
       </c>
       <c r="F123">
-        <v>5.627929490752131E-3</v>
+        <v>1.3302795246672197E-17</v>
       </c>
       <c r="G123">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D124">
-        <v>-599650</v>
+        <v>240250</v>
       </c>
       <c r="E124">
-        <v>-11993</v>
+        <v>4805</v>
       </c>
       <c r="F124">
-        <v>-1.4845996888380539E-18</v>
+        <v>7.5870002824879532E-3</v>
       </c>
       <c r="G124">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D125">
-        <v>-599600</v>
+        <v>240300</v>
       </c>
       <c r="E125">
-        <v>-11992</v>
+        <v>4806</v>
       </c>
       <c r="F125">
-        <v>7.6287720303866513E-3</v>
+        <v>2.2535672250342427E-17</v>
       </c>
       <c r="G125">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D126">
-        <v>-599550</v>
+        <v>240350</v>
       </c>
       <c r="E126">
-        <v>-11991</v>
+        <v>4807</v>
       </c>
       <c r="F126">
-        <v>1.0012712463894077E-18</v>
+        <v>3.5801638454614516E-2</v>
       </c>
       <c r="G126">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D127">
-        <v>-599500</v>
+        <v>240400</v>
       </c>
       <c r="E127">
-        <v>-11990</v>
+        <v>4808</v>
       </c>
       <c r="F127">
-        <v>5.3154371945849889E-3</v>
+        <v>2.4363834156150282E-17</v>
       </c>
       <c r="G127">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D128">
-        <v>-560500</v>
+        <v>240450</v>
       </c>
       <c r="E128">
-        <v>-11210</v>
+        <v>4809</v>
       </c>
       <c r="F128">
-        <v>-1.1816996083093503E-17</v>
+        <v>1.7808025964595069E-2</v>
       </c>
       <c r="G128">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D129">
-        <v>-560450</v>
+        <v>240500</v>
       </c>
       <c r="E129">
-        <v>-11209</v>
+        <v>4810</v>
       </c>
       <c r="F129">
-        <v>-6.8222436743742244E-3</v>
+        <v>9.1789488848345128E-18</v>
       </c>
       <c r="G129">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D130">
-        <v>-560400</v>
+        <v>279500</v>
       </c>
       <c r="E130">
-        <v>-11208</v>
+        <v>5590</v>
       </c>
       <c r="F130">
-        <v>-8.998799812507956E-18</v>
+        <v>1.8068619936093381E-2</v>
       </c>
       <c r="G130">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D131">
-        <v>-560350</v>
+        <v>279550</v>
       </c>
       <c r="E131">
-        <v>-11207</v>
+        <v>5591</v>
       </c>
       <c r="F131">
-        <v>-8.3069261004049683E-3</v>
+        <v>3.1831077399111559E-18</v>
       </c>
       <c r="G131">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D132">
-        <v>-560300</v>
+        <v>279600</v>
       </c>
       <c r="E132">
-        <v>-11206</v>
+        <v>5592</v>
       </c>
       <c r="F132">
-        <v>4.9468296294916824E-18</v>
+        <v>2.9208669114911951E-2</v>
       </c>
       <c r="G132">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D133">
-        <v>-560250</v>
+        <v>279650</v>
       </c>
       <c r="E133">
-        <v>-11205</v>
+        <v>5593</v>
       </c>
       <c r="F133">
-        <v>-5.8578238038541194E-3</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D134">
-        <v>-560200</v>
+        <v>279700</v>
       </c>
       <c r="E134">
-        <v>-11204</v>
+        <v>5594</v>
       </c>
       <c r="F134">
-        <v>7.7142614882633184E-18</v>
+        <v>8.2971571482727395E-4</v>
       </c>
       <c r="G134">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D135">
-        <v>-560150</v>
+        <v>279750</v>
       </c>
       <c r="E135">
-        <v>-11203</v>
+        <v>5595</v>
       </c>
       <c r="F135">
-        <v>-3.0287742176430756E-3</v>
+        <v>2.4770639623224762E-18</v>
       </c>
       <c r="G135">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D136">
-        <v>-560100</v>
+        <v>279800</v>
       </c>
       <c r="E136">
-        <v>-11202</v>
+        <v>5596</v>
       </c>
       <c r="F136">
-        <v>7.7566780727885082E-18</v>
+        <v>2.1269012170682451E-2</v>
       </c>
       <c r="G136">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D137">
-        <v>-560050</v>
+        <v>279850</v>
       </c>
       <c r="E137">
-        <v>-11201</v>
+        <v>5597</v>
       </c>
       <c r="F137">
-        <v>-1.4286838984804158E-3</v>
+        <v>7.4281292023778432E-19</v>
       </c>
       <c r="G137">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D138">
-        <v>-560000</v>
+        <v>279900</v>
       </c>
       <c r="E138">
-        <v>-11200</v>
+        <v>5598</v>
       </c>
       <c r="F138">
-        <v>6.9108545432595095E-18</v>
+        <v>2.3107790706753582E-2</v>
       </c>
       <c r="G138">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D139">
-        <v>-559950</v>
+        <v>279950</v>
       </c>
       <c r="E139">
-        <v>-11199</v>
+        <v>5599</v>
       </c>
       <c r="F139">
-        <v>-1.4286838984804158E-3</v>
+        <v>2.3173287661126491E-18</v>
       </c>
       <c r="G139">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D140">
-        <v>-559900</v>
+        <v>280000</v>
       </c>
       <c r="E140">
-        <v>-11198</v>
+        <v>5600</v>
       </c>
       <c r="F140">
-        <v>5.8175085545913815E-18</v>
+        <v>2.1833040428286841E-2</v>
       </c>
       <c r="G140">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D141">
-        <v>-559850</v>
+        <v>280050</v>
       </c>
       <c r="E141">
-        <v>-11197</v>
+        <v>5601</v>
       </c>
       <c r="F141">
-        <v>-3.0287742176430756E-3</v>
+        <v>3.0897716881501987E-18</v>
       </c>
       <c r="G141">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D142">
-        <v>-559800</v>
+        <v>280100</v>
       </c>
       <c r="E142">
-        <v>-11196</v>
+        <v>5602</v>
       </c>
       <c r="F142">
-        <v>4.2857008268129551E-18</v>
+        <v>2.3107790706753582E-2</v>
       </c>
       <c r="G142">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D143">
-        <v>-559750</v>
+        <v>280150</v>
       </c>
       <c r="E143">
-        <v>-11195</v>
+        <v>5603</v>
       </c>
       <c r="F143">
-        <v>-5.8578238038541194E-3</v>
+        <v>1.8570323005944611E-18</v>
       </c>
       <c r="G143">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D144">
-        <v>-559700</v>
+        <v>280200</v>
       </c>
       <c r="E144">
-        <v>-11194</v>
+        <v>5604</v>
       </c>
       <c r="F144">
-        <v>1.9787318517966727E-18</v>
+        <v>2.1269012170682451E-2</v>
       </c>
       <c r="G144">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D145">
-        <v>-559650</v>
+        <v>280250</v>
       </c>
       <c r="E145">
-        <v>-11193</v>
+        <v>5605</v>
       </c>
       <c r="F145">
-        <v>-8.3069261004049683E-3</v>
+        <v>1.4862383773934855E-17</v>
       </c>
       <c r="G145">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D146">
-        <v>-559600</v>
+        <v>280300</v>
       </c>
       <c r="E146">
-        <v>-11192</v>
+        <v>5606</v>
       </c>
       <c r="F146">
-        <v>-6.7473946711374003E-19</v>
+        <v>8.2971571482727395E-4</v>
       </c>
       <c r="G146">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D147">
-        <v>-559550</v>
+        <v>280350</v>
       </c>
       <c r="E147">
-        <v>-11191</v>
+        <v>5607</v>
       </c>
       <c r="F147">
-        <v>-6.8222436743742244E-3</v>
+        <v>1.8201947583867562E-17</v>
       </c>
       <c r="G147">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D148">
-        <v>-559500</v>
+        <v>280400</v>
       </c>
       <c r="E148">
-        <v>-11190</v>
+        <v>5608</v>
       </c>
       <c r="F148">
-        <v>-1.9694993471822507E-18</v>
+        <v>2.9208669114911951E-2</v>
       </c>
       <c r="G148">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D149">
-        <v>-520500</v>
+        <v>280450</v>
       </c>
       <c r="E149">
-        <v>-10410</v>
+        <v>5609</v>
       </c>
       <c r="F149">
-        <v>4.6101590155277634E-4</v>
+        <v>2.5464861919289247E-17</v>
       </c>
       <c r="G149">
-        <v>90.000000000000099</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D150">
-        <v>-520450</v>
+        <v>280500</v>
       </c>
       <c r="E150">
-        <v>-10409</v>
+        <v>5610</v>
       </c>
       <c r="F150">
-        <v>3.976470883920438E-17</v>
+        <v>1.8068619936093381E-2</v>
       </c>
       <c r="G150">
-        <v>90.000000000000099</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D151">
-        <v>-520400</v>
+        <v>319500</v>
       </c>
       <c r="E151">
-        <v>-10408</v>
+        <v>6390</v>
       </c>
       <c r="F151">
-        <v>8.4094941474802919E-3</v>
+        <v>2.8684181791017413E-18</v>
       </c>
       <c r="G151">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D152">
-        <v>-520350</v>
+        <v>319550</v>
       </c>
       <c r="E152">
-        <v>-10407</v>
+        <v>6391</v>
       </c>
       <c r="F152">
-        <v>9.7274328402927651E-19</v>
+        <v>2.3508249212937437E-2</v>
       </c>
       <c r="G152">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D153">
-        <v>-520300</v>
+        <v>319600</v>
       </c>
       <c r="E153">
-        <v>-10406</v>
+        <v>6392</v>
       </c>
       <c r="F153">
-        <v>9.0145698117137102E-3</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D154">
-        <v>-520250</v>
+        <v>319650</v>
       </c>
       <c r="E154">
-        <v>-10405</v>
+        <v>6393</v>
       </c>
       <c r="F154">
-        <v>-5.6119788207986136E-18</v>
+        <v>3.7134363045095479E-3</v>
       </c>
       <c r="G154">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D155">
-        <v>-520200</v>
+        <v>319700</v>
       </c>
       <c r="E155">
-        <v>-10404</v>
+        <v>6394</v>
       </c>
       <c r="F155">
-        <v>6.2440776650796569E-3</v>
+        <v>2.2764820645211708E-18</v>
       </c>
       <c r="G155">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D156">
-        <v>-520150</v>
+        <v>319750</v>
       </c>
       <c r="E156">
-        <v>-10403</v>
+        <v>6395</v>
       </c>
       <c r="F156">
-        <v>-7.6513165777029031E-18</v>
+        <v>1.6009985103243505E-2</v>
       </c>
       <c r="G156">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D157">
-        <v>-520100</v>
+        <v>319800</v>
       </c>
       <c r="E157">
-        <v>-10402</v>
+        <v>6396</v>
       </c>
       <c r="F157">
-        <v>3.6944260381565224E-3</v>
+        <v>1.0857600752357512E-18</v>
       </c>
       <c r="G157">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D158">
-        <v>-520050</v>
+        <v>319850</v>
       </c>
       <c r="E158">
-        <v>-10401</v>
+        <v>6397</v>
       </c>
       <c r="F158">
-        <v>-7.3842049294891874E-18</v>
+        <v>1.9145657148184878E-2</v>
       </c>
       <c r="G158">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D159">
-        <v>-520000</v>
+        <v>319900</v>
       </c>
       <c r="E159">
-        <v>-10400</v>
+        <v>6398</v>
       </c>
       <c r="F159">
-        <v>2.7570386501326667E-3</v>
+        <v>2.1030129576527496E-18</v>
       </c>
       <c r="G159">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D160">
-        <v>-519950</v>
+        <v>319950</v>
       </c>
       <c r="E160">
-        <v>-10399</v>
+        <v>6399</v>
       </c>
       <c r="F160">
-        <v>-6.3293185109907315E-18</v>
+        <v>1.7121158644980608E-2</v>
       </c>
       <c r="G160">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D161">
-        <v>-519900</v>
+        <v>320000</v>
       </c>
       <c r="E161">
-        <v>-10398</v>
+        <v>6400</v>
       </c>
       <c r="F161">
-        <v>3.6944260381565224E-3</v>
+        <v>4.2871554628694219E-18</v>
       </c>
       <c r="G161">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D162">
-        <v>-519850</v>
+        <v>320050</v>
       </c>
       <c r="E162">
-        <v>-10397</v>
+        <v>6401</v>
       </c>
       <c r="F162">
-        <v>-4.7820728610643146E-18</v>
+        <v>1.7121158644980608E-2</v>
       </c>
       <c r="G162">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D163">
-        <v>-519800</v>
+        <v>320100</v>
       </c>
       <c r="E163">
-        <v>-10396</v>
+        <v>6402</v>
       </c>
       <c r="F163">
-        <v>6.2440776650796569E-3</v>
+        <v>3.5050215960879164E-18</v>
       </c>
       <c r="G163">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D164">
-        <v>-519750</v>
+        <v>320150</v>
       </c>
       <c r="E164">
-        <v>-10395</v>
+        <v>6403</v>
       </c>
       <c r="F164">
-        <v>-2.4942128092438281E-18</v>
+        <v>1.9145657148184878E-2</v>
       </c>
       <c r="G164">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D165">
-        <v>-519700</v>
+        <v>320200</v>
       </c>
       <c r="E165">
-        <v>-10394</v>
+        <v>6404</v>
       </c>
       <c r="F165">
-        <v>9.0145698117137102E-3</v>
+        <v>3.257280225707253E-18</v>
       </c>
       <c r="G165">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D166">
-        <v>-519650</v>
+        <v>320250</v>
       </c>
       <c r="E166">
-        <v>-10393</v>
+        <v>6405</v>
       </c>
       <c r="F166">
-        <v>2.9182298520878296E-19</v>
+        <v>1.6009985103243505E-2</v>
       </c>
       <c r="G166">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D167">
-        <v>-519600</v>
+        <v>320300</v>
       </c>
       <c r="E167">
-        <v>-10392</v>
+        <v>6406</v>
       </c>
       <c r="F167">
-        <v>8.4094941474802919E-3</v>
+        <v>1.5935374451648195E-17</v>
       </c>
       <c r="G167">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D168">
-        <v>-519550</v>
+        <v>320350</v>
       </c>
       <c r="E168">
-        <v>-10391</v>
+        <v>6407</v>
       </c>
       <c r="F168">
-        <v>1.9877331059788723E-18</v>
+        <v>3.7134363045095479E-3</v>
       </c>
       <c r="G168">
-        <v>90.000000000000099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D169">
-        <v>-519500</v>
+        <v>320400</v>
       </c>
       <c r="E169">
-        <v>-10390</v>
+        <v>6408</v>
       </c>
       <c r="F169">
-        <v>4.6101590155277634E-4</v>
+        <v>1.3708332532673466E-17</v>
       </c>
       <c r="G169">
-        <v>90.000000000000099</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D170">
-        <v>-480500</v>
+        <v>320450</v>
       </c>
       <c r="E170">
-        <v>-9610</v>
+        <v>6409</v>
       </c>
       <c r="F170">
-        <v>-5.242111164154202E-17</v>
+        <v>2.3508249212937437E-2</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D171">
-        <v>-480450</v>
+        <v>320500</v>
       </c>
       <c r="E171">
-        <v>-9609</v>
+        <v>6410</v>
       </c>
       <c r="F171">
-        <v>-2.6041570734479489E-3</v>
+        <v>2.5815763611915671E-17</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -2766,573 +2766,573 @@
     </row>
     <row r="172" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D172">
-        <v>-480400</v>
+        <v>359500</v>
       </c>
       <c r="E172">
-        <v>-9608</v>
+        <v>7190</v>
       </c>
       <c r="F172">
-        <v>-9.7181495568426348E-18</v>
+        <v>1.8502984556237525E-2</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D173">
-        <v>-480350</v>
+        <v>359550</v>
       </c>
       <c r="E173">
-        <v>-9607</v>
+        <v>7191</v>
       </c>
       <c r="F173">
-        <v>-1.0088420700126678E-2</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D174">
-        <v>-480300</v>
+        <v>359600</v>
       </c>
       <c r="E174">
-        <v>-9606</v>
+        <v>7192</v>
       </c>
       <c r="F174">
-        <v>4.2982479400411154E-19</v>
+        <v>6.7243650671407222E-3</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D175">
-        <v>-480250</v>
+        <v>359650</v>
       </c>
       <c r="E175">
-        <v>-9605</v>
+        <v>7193</v>
       </c>
       <c r="F175">
-        <v>-9.8125689675177159E-3</v>
+        <v>2.0551829921478417E-18</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D176">
-        <v>-480200</v>
+        <v>359700</v>
       </c>
       <c r="E176">
-        <v>-9604</v>
+        <v>7194</v>
       </c>
       <c r="F176">
-        <v>6.0488931433860681E-18</v>
+        <v>1.1741207788803856E-2</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D177">
-        <v>-480150</v>
+        <v>359750</v>
       </c>
       <c r="E177">
-        <v>-9603</v>
+        <v>7195</v>
       </c>
       <c r="F177">
-        <v>-6.9010379019897473E-3</v>
+        <v>1.3981144001728806E-18</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D178">
-        <v>-480100</v>
+        <v>359800</v>
       </c>
       <c r="E178">
-        <v>-9602</v>
+        <v>7196</v>
       </c>
       <c r="F178">
-        <v>7.3851150666049789E-18</v>
+        <v>1.6227597185753548E-2</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D179">
-        <v>-480050</v>
+        <v>359850</v>
       </c>
       <c r="E179">
-        <v>-9601</v>
+        <v>7197</v>
       </c>
       <c r="F179">
-        <v>-4.8697815638017007E-3</v>
+        <v>1.6514483854577264E-18</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D180">
-        <v>-480000</v>
+        <v>359900</v>
       </c>
       <c r="E180">
-        <v>-9600</v>
+        <v>7198</v>
       </c>
       <c r="F180">
-        <v>6.7519485245748635E-18</v>
+        <v>1.4107873499276651E-2</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D181">
-        <v>-479950</v>
+        <v>359950</v>
       </c>
       <c r="E181">
-        <v>-9599</v>
+        <v>7199</v>
       </c>
       <c r="F181">
-        <v>-4.8697815638017007E-3</v>
+        <v>4.3745698015140758E-18</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D182">
-        <v>-479900</v>
+        <v>360000</v>
       </c>
       <c r="E182">
-        <v>-9598</v>
+        <v>7200</v>
       </c>
       <c r="F182">
-        <v>5.2750821904321281E-18</v>
+        <v>1.2704124022745813E-2</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D183">
-        <v>-479850</v>
+        <v>360050</v>
       </c>
       <c r="E183">
-        <v>-9597</v>
+        <v>7201</v>
       </c>
       <c r="F183">
-        <v>-6.9010379019897473E-3</v>
+        <v>5.4682122518925957E-18</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D184">
-        <v>-479800</v>
+        <v>360100</v>
       </c>
       <c r="E184">
-        <v>-9596</v>
+        <v>7202</v>
       </c>
       <c r="F184">
-        <v>3.024446571693034E-18</v>
+        <v>1.4107873499276651E-2</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D185">
-        <v>-479750</v>
+        <v>360150</v>
       </c>
       <c r="E185">
-        <v>-9595</v>
+        <v>7203</v>
       </c>
       <c r="F185">
-        <v>-9.8125689675177159E-3</v>
+        <v>3.3028967709154528E-18</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D186">
-        <v>-479700</v>
+        <v>360200</v>
       </c>
       <c r="E186">
-        <v>-9594</v>
+        <v>7204</v>
       </c>
       <c r="F186">
-        <v>1.4327493133470384E-19</v>
+        <v>1.6227597185753548E-2</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D187">
-        <v>-479650</v>
+        <v>360250</v>
       </c>
       <c r="E187">
-        <v>-9593</v>
+        <v>7205</v>
       </c>
       <c r="F187">
-        <v>-1.0088420700126678E-2</v>
+        <v>4.8934004006050816E-18</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D188">
-        <v>-479600</v>
+        <v>360300</v>
       </c>
       <c r="E188">
-        <v>-9592</v>
+        <v>7206</v>
       </c>
       <c r="F188">
-        <v>-1.9436299113685266E-18</v>
+        <v>1.1741207788803856E-2</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D189">
-        <v>-479550</v>
+        <v>360350</v>
       </c>
       <c r="E189">
-        <v>-9591</v>
+        <v>7207</v>
       </c>
       <c r="F189">
-        <v>-2.6041570734479489E-3</v>
+        <v>1.6441463937182734E-17</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D190">
-        <v>-479500</v>
+        <v>360400</v>
       </c>
       <c r="E190">
-        <v>-9590</v>
+        <v>7208</v>
       </c>
       <c r="F190">
-        <v>-1.310196680723293E-18</v>
+        <v>6.7243650671407222E-3</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D191">
-        <v>-440500</v>
+        <v>360450</v>
       </c>
       <c r="E191">
-        <v>-8810</v>
+        <v>7209</v>
       </c>
       <c r="F191">
-        <v>-9.6428175431914603E-3</v>
+        <v>9.1765649750887151E-18</v>
       </c>
       <c r="G191">
-        <v>269.99999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D192">
-        <v>-440450</v>
+        <v>360500</v>
       </c>
       <c r="E192">
-        <v>-8809</v>
+        <v>7210</v>
       </c>
       <c r="F192">
-        <v>1.5660306411650137E-17</v>
+        <v>1.8502984556237525E-2</v>
       </c>
       <c r="G192">
-        <v>269.99999999999989</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D193">
-        <v>-440400</v>
+        <v>399500</v>
       </c>
       <c r="E193">
-        <v>-8808</v>
+        <v>7990</v>
       </c>
       <c r="F193">
-        <v>5.1587202032355103E-3</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D194">
-        <v>-440350</v>
+        <v>399550</v>
       </c>
       <c r="E194">
-        <v>-8807</v>
+        <v>7991</v>
       </c>
       <c r="F194">
-        <v>8.2442167775829271E-18</v>
+        <v>8.611538665405068E-3</v>
       </c>
       <c r="G194">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D195">
-        <v>-440300</v>
+        <v>399600</v>
       </c>
       <c r="E195">
-        <v>-8806</v>
+        <v>7992</v>
       </c>
       <c r="F195">
-        <v>1.1892656532121305E-2</v>
+        <v>1.816476391180729E-18</v>
       </c>
       <c r="G195">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D196">
-        <v>-440250</v>
+        <v>399650</v>
       </c>
       <c r="E196">
-        <v>-8805</v>
+        <v>7993</v>
       </c>
       <c r="F196">
-        <v>-1.6627636641786366E-18</v>
+        <v>8.1755932103280745E-3</v>
       </c>
       <c r="G196">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D197">
-        <v>-440200</v>
+        <v>399700</v>
       </c>
       <c r="E197">
-        <v>-8804</v>
+        <v>7994</v>
       </c>
       <c r="F197">
-        <v>1.0801279989460176E-2</v>
+        <v>1.6499388253262327E-18</v>
       </c>
       <c r="G197">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D198">
-        <v>-440150</v>
+        <v>399750</v>
       </c>
       <c r="E198">
-        <v>-8803</v>
+        <v>7995</v>
       </c>
       <c r="F198">
-        <v>-6.2183399091135894E-18</v>
+        <v>1.3893615637316486E-2</v>
       </c>
       <c r="G198">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D199">
-        <v>-440100</v>
+        <v>399800</v>
       </c>
       <c r="E199">
-        <v>-8802</v>
+        <v>7996</v>
       </c>
       <c r="F199">
-        <v>8.0025452087486623E-3</v>
+        <v>1.1357385039598425E-18</v>
       </c>
       <c r="G199">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D200">
-        <v>-440050</v>
+        <v>399850</v>
       </c>
       <c r="E200">
-        <v>-8801</v>
+        <v>7997</v>
       </c>
       <c r="F200">
-        <v>-6.8425048519567452E-18</v>
+        <v>1.2144277180465899E-2</v>
       </c>
       <c r="G200">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D201">
-        <v>-440000</v>
+        <v>399900</v>
       </c>
       <c r="E201">
-        <v>-8800</v>
+        <v>7998</v>
       </c>
       <c r="F201">
-        <v>6.8049006768406868E-3</v>
+        <v>4.0391435642771229E-18</v>
       </c>
       <c r="G201">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D202">
-        <v>-439950</v>
+        <v>399950</v>
       </c>
       <c r="E202">
-        <v>-8799</v>
+        <v>7999</v>
       </c>
       <c r="F202">
-        <v>-5.7020873766306222E-18</v>
+        <v>9.8112701287452701E-3</v>
       </c>
       <c r="G202">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D203">
-        <v>-439900</v>
+        <v>400000</v>
       </c>
       <c r="E203">
-        <v>-8798</v>
+        <v>8000</v>
       </c>
       <c r="F203">
-        <v>8.0025452087486623E-3</v>
+        <v>5.8988409410600392E-18</v>
       </c>
       <c r="G203">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D204">
-        <v>-439850</v>
+        <v>400050</v>
       </c>
       <c r="E204">
-        <v>-8797</v>
+        <v>8001</v>
       </c>
       <c r="F204">
-        <v>-3.5533370909220509E-18</v>
+        <v>9.8112701287452701E-3</v>
       </c>
       <c r="G204">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D205">
-        <v>-439800</v>
+        <v>400100</v>
       </c>
       <c r="E205">
-        <v>-8796</v>
+        <v>8002</v>
       </c>
       <c r="F205">
-        <v>1.0801279989460176E-2</v>
+        <v>6.0587153464156844E-18</v>
       </c>
       <c r="G205">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D206">
-        <v>-439750</v>
+        <v>400150</v>
       </c>
       <c r="E206">
-        <v>-8795</v>
+        <v>8003</v>
       </c>
       <c r="F206">
-        <v>-6.2353637406698868E-19</v>
+        <v>1.2144277180465899E-2</v>
       </c>
       <c r="G206">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D207">
-        <v>-439700</v>
+        <v>400200</v>
       </c>
       <c r="E207">
-        <v>-8794</v>
+        <v>8004</v>
       </c>
       <c r="F207">
-        <v>1.1892656532121305E-2</v>
+        <v>2.6500565092396326E-18</v>
       </c>
       <c r="G207">
-        <v>269.99999999999989</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D208">
-        <v>-439650</v>
+        <v>400250</v>
       </c>
       <c r="E208">
-        <v>-8793</v>
+        <v>8005</v>
       </c>
       <c r="F208">
-        <v>1.8320481727962057E-18</v>
+        <v>1.3893615637316486E-2</v>
       </c>
       <c r="G208">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D209">
-        <v>-439600</v>
+        <v>400300</v>
       </c>
       <c r="E209">
-        <v>-8792</v>
+        <v>8006</v>
       </c>
       <c r="F209">
-        <v>5.1587202032355103E-3</v>
+        <v>6.599755301304931E-18</v>
       </c>
       <c r="G209">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D210">
-        <v>-439550</v>
+        <v>400350</v>
       </c>
       <c r="E210">
-        <v>-8791</v>
+        <v>8007</v>
       </c>
       <c r="F210">
-        <v>1.5660306411650134E-18</v>
+        <v>8.1755932103280745E-3</v>
       </c>
       <c r="G210">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D211">
-        <v>-439500</v>
+        <v>400400</v>
       </c>
       <c r="E211">
-        <v>-8790</v>
+        <v>8008</v>
       </c>
       <c r="F211">
-        <v>-9.6428175431914603E-3</v>
+        <v>1.6348287520626562E-17</v>
       </c>
       <c r="G211">
-        <v>269.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D212">
-        <v>-400500</v>
+        <v>400450</v>
       </c>
       <c r="E212">
-        <v>-8010</v>
+        <v>8009</v>
       </c>
       <c r="F212">
-        <v>-4.7370609277538794E-18</v>
+        <v>8.611538665405068E-3</v>
       </c>
       <c r="G212">
         <v>180</v>
@@ -3340,1777 +3340,1777 @@
     </row>
     <row r="213" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D213">
-        <v>-400450</v>
+        <v>400500</v>
       </c>
       <c r="E213">
-        <v>-8009</v>
+        <v>8010</v>
       </c>
       <c r="F213">
-        <v>8.611538665405068E-3</v>
+        <v>4.7370609277538794E-18</v>
       </c>
       <c r="G213">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D214">
-        <v>-400400</v>
+        <v>439500</v>
       </c>
       <c r="E214">
-        <v>-8008</v>
+        <v>8790</v>
       </c>
       <c r="F214">
-        <v>-1.6348287520626562E-17</v>
+        <v>9.6428175431914603E-3</v>
       </c>
       <c r="G214">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="215" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D215">
-        <v>-400350</v>
+        <v>439550</v>
       </c>
       <c r="E215">
-        <v>-8007</v>
+        <v>8791</v>
       </c>
       <c r="F215">
-        <v>-8.1755932103280745E-3</v>
+        <v>1.5660306411650134E-18</v>
       </c>
       <c r="G215">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="216" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D216">
-        <v>-400300</v>
+        <v>439600</v>
       </c>
       <c r="E216">
-        <v>-8006</v>
+        <v>8792</v>
       </c>
       <c r="F216">
-        <v>-6.599755301304931E-18</v>
+        <v>5.1587202032355103E-3</v>
       </c>
       <c r="G216">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="217" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D217">
-        <v>-400250</v>
+        <v>439650</v>
       </c>
       <c r="E217">
-        <v>-8005</v>
+        <v>8793</v>
       </c>
       <c r="F217">
-        <v>-1.3893615637316486E-2</v>
+        <v>1.8320481727962057E-18</v>
       </c>
       <c r="G217">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="218" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D218">
-        <v>-400200</v>
+        <v>439700</v>
       </c>
       <c r="E218">
-        <v>-8004</v>
+        <v>8794</v>
       </c>
       <c r="F218">
-        <v>2.6500565092396326E-18</v>
+        <v>1.1892656532121305E-2</v>
       </c>
       <c r="G218">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="219" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D219">
-        <v>-400150</v>
+        <v>439750</v>
       </c>
       <c r="E219">
-        <v>-8003</v>
+        <v>8795</v>
       </c>
       <c r="F219">
-        <v>-1.2144277180465899E-2</v>
+        <v>6.2353637406698868E-19</v>
       </c>
       <c r="G219">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="220" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D220">
-        <v>-400100</v>
+        <v>439800</v>
       </c>
       <c r="E220">
-        <v>-8002</v>
+        <v>8796</v>
       </c>
       <c r="F220">
-        <v>6.0587153464156844E-18</v>
+        <v>1.0801279989460176E-2</v>
       </c>
       <c r="G220">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="221" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D221">
-        <v>-400050</v>
+        <v>439850</v>
       </c>
       <c r="E221">
-        <v>-8001</v>
+        <v>8797</v>
       </c>
       <c r="F221">
-        <v>-9.8112701287452701E-3</v>
+        <v>3.5533370909220509E-18</v>
       </c>
       <c r="G221">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="222" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D222">
-        <v>-400000</v>
+        <v>439900</v>
       </c>
       <c r="E222">
-        <v>-8000</v>
+        <v>8798</v>
       </c>
       <c r="F222">
-        <v>5.8988409410600392E-18</v>
+        <v>8.0025452087486623E-3</v>
       </c>
       <c r="G222">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="223" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D223">
-        <v>-399950</v>
+        <v>439950</v>
       </c>
       <c r="E223">
-        <v>-7999</v>
+        <v>8799</v>
       </c>
       <c r="F223">
-        <v>-9.8112701287452701E-3</v>
+        <v>5.7020873766306222E-18</v>
       </c>
       <c r="G223">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="224" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D224">
-        <v>-399900</v>
+        <v>440000</v>
       </c>
       <c r="E224">
-        <v>-7998</v>
+        <v>8800</v>
       </c>
       <c r="F224">
-        <v>4.0391435642771229E-18</v>
+        <v>6.8049006768406868E-3</v>
       </c>
       <c r="G224">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="225" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D225">
-        <v>-399850</v>
+        <v>440050</v>
       </c>
       <c r="E225">
-        <v>-7997</v>
+        <v>8801</v>
       </c>
       <c r="F225">
-        <v>-1.2144277180465899E-2</v>
+        <v>6.8425048519567452E-18</v>
       </c>
       <c r="G225">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="226" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D226">
-        <v>-399800</v>
+        <v>440100</v>
       </c>
       <c r="E226">
-        <v>-7996</v>
+        <v>8802</v>
       </c>
       <c r="F226">
-        <v>1.1357385039598425E-18</v>
+        <v>8.0025452087486623E-3</v>
       </c>
       <c r="G226">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="227" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D227">
-        <v>-399750</v>
+        <v>440150</v>
       </c>
       <c r="E227">
-        <v>-7995</v>
+        <v>8803</v>
       </c>
       <c r="F227">
-        <v>-1.3893615637316486E-2</v>
+        <v>6.2183399091135894E-18</v>
       </c>
       <c r="G227">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="228" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D228">
-        <v>-399700</v>
+        <v>440200</v>
       </c>
       <c r="E228">
-        <v>-7994</v>
+        <v>8804</v>
       </c>
       <c r="F228">
-        <v>-1.6499388253262327E-18</v>
+        <v>1.0801279989460176E-2</v>
       </c>
       <c r="G228">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="229" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D229">
-        <v>-399650</v>
+        <v>440250</v>
       </c>
       <c r="E229">
-        <v>-7993</v>
+        <v>8805</v>
       </c>
       <c r="F229">
-        <v>-8.1755932103280745E-3</v>
+        <v>1.6627636641786366E-18</v>
       </c>
       <c r="G229">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="230" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D230">
-        <v>-399600</v>
+        <v>440300</v>
       </c>
       <c r="E230">
-        <v>-7992</v>
+        <v>8806</v>
       </c>
       <c r="F230">
-        <v>-1.816476391180729E-18</v>
+        <v>1.1892656532121305E-2</v>
       </c>
       <c r="G230">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="231" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D231">
-        <v>-399550</v>
+        <v>440350</v>
       </c>
       <c r="E231">
-        <v>-7991</v>
+        <v>8807</v>
       </c>
       <c r="F231">
-        <v>8.611538665405068E-3</v>
+        <v>8.2442167775829271E-18</v>
       </c>
       <c r="G231">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="232" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D232">
-        <v>-399500</v>
+        <v>440400</v>
       </c>
       <c r="E232">
-        <v>-7990</v>
+        <v>8808</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>5.1587202032355103E-3</v>
       </c>
       <c r="G232">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="233" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D233">
-        <v>-360500</v>
+        <v>440450</v>
       </c>
       <c r="E233">
-        <v>-7210</v>
+        <v>8809</v>
       </c>
       <c r="F233">
-        <v>-1.8502984556237525E-2</v>
+        <v>1.5660306411650137E-17</v>
       </c>
       <c r="G233">
-        <v>90</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="234" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D234">
-        <v>-360450</v>
+        <v>440500</v>
       </c>
       <c r="E234">
-        <v>-7209</v>
+        <v>8810</v>
       </c>
       <c r="F234">
-        <v>9.1765649750887151E-18</v>
+        <v>9.6428175431914603E-3</v>
       </c>
       <c r="G234">
-        <v>90</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="235" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D235">
-        <v>-360400</v>
+        <v>479500</v>
       </c>
       <c r="E235">
-        <v>-7208</v>
+        <v>9590</v>
       </c>
       <c r="F235">
-        <v>-6.7243650671407222E-3</v>
+        <v>1.310196680723293E-18</v>
       </c>
       <c r="G235">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D236">
-        <v>-360350</v>
+        <v>479550</v>
       </c>
       <c r="E236">
-        <v>-7207</v>
+        <v>9591</v>
       </c>
       <c r="F236">
-        <v>1.6441463937182734E-17</v>
+        <v>2.6041570734479489E-3</v>
       </c>
       <c r="G236">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D237">
-        <v>-360300</v>
+        <v>479600</v>
       </c>
       <c r="E237">
-        <v>-7206</v>
+        <v>9592</v>
       </c>
       <c r="F237">
-        <v>1.1741207788803856E-2</v>
+        <v>1.9436299113685266E-18</v>
       </c>
       <c r="G237">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D238">
-        <v>-360250</v>
+        <v>479650</v>
       </c>
       <c r="E238">
-        <v>-7205</v>
+        <v>9593</v>
       </c>
       <c r="F238">
-        <v>4.8934004006050816E-18</v>
+        <v>1.0088420700126678E-2</v>
       </c>
       <c r="G238">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D239">
-        <v>-360200</v>
+        <v>479700</v>
       </c>
       <c r="E239">
-        <v>-7204</v>
+        <v>9594</v>
       </c>
       <c r="F239">
-        <v>1.6227597185753548E-2</v>
+        <v>1.4327493133470384E-19</v>
       </c>
       <c r="G239">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D240">
-        <v>-360150</v>
+        <v>479750</v>
       </c>
       <c r="E240">
-        <v>-7203</v>
+        <v>9595</v>
       </c>
       <c r="F240">
-        <v>-3.3028967709154528E-18</v>
+        <v>9.8125689675177159E-3</v>
       </c>
       <c r="G240">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D241">
-        <v>-360100</v>
+        <v>479800</v>
       </c>
       <c r="E241">
-        <v>-7202</v>
+        <v>9596</v>
       </c>
       <c r="F241">
-        <v>1.4107873499276651E-2</v>
+        <v>3.024446571693034E-18</v>
       </c>
       <c r="G241">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D242">
-        <v>-360050</v>
+        <v>479850</v>
       </c>
       <c r="E242">
-        <v>-7201</v>
+        <v>9597</v>
       </c>
       <c r="F242">
-        <v>-5.4682122518925957E-18</v>
+        <v>6.9010379019897473E-3</v>
       </c>
       <c r="G242">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D243">
-        <v>-360000</v>
+        <v>479900</v>
       </c>
       <c r="E243">
-        <v>-7200</v>
+        <v>9598</v>
       </c>
       <c r="F243">
-        <v>1.2704124022745813E-2</v>
+        <v>5.2750821904321281E-18</v>
       </c>
       <c r="G243">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D244">
-        <v>-359950</v>
+        <v>479950</v>
       </c>
       <c r="E244">
-        <v>-7199</v>
+        <v>9599</v>
       </c>
       <c r="F244">
-        <v>-4.3745698015140758E-18</v>
+        <v>4.8697815638017007E-3</v>
       </c>
       <c r="G244">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D245">
-        <v>-359900</v>
+        <v>480000</v>
       </c>
       <c r="E245">
-        <v>-7198</v>
+        <v>9600</v>
       </c>
       <c r="F245">
-        <v>1.4107873499276651E-2</v>
+        <v>6.7519485245748635E-18</v>
       </c>
       <c r="G245">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D246">
-        <v>-359850</v>
+        <v>480050</v>
       </c>
       <c r="E246">
-        <v>-7197</v>
+        <v>9601</v>
       </c>
       <c r="F246">
-        <v>-1.6514483854577264E-18</v>
+        <v>4.8697815638017007E-3</v>
       </c>
       <c r="G246">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D247">
-        <v>-359800</v>
+        <v>480100</v>
       </c>
       <c r="E247">
-        <v>-7196</v>
+        <v>9602</v>
       </c>
       <c r="F247">
-        <v>1.6227597185753548E-2</v>
+        <v>7.3851150666049789E-18</v>
       </c>
       <c r="G247">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D248">
-        <v>-359750</v>
+        <v>480150</v>
       </c>
       <c r="E248">
-        <v>-7195</v>
+        <v>9603</v>
       </c>
       <c r="F248">
-        <v>1.3981144001728806E-18</v>
+        <v>6.9010379019897473E-3</v>
       </c>
       <c r="G248">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D249">
-        <v>-359700</v>
+        <v>480200</v>
       </c>
       <c r="E249">
-        <v>-7194</v>
+        <v>9604</v>
       </c>
       <c r="F249">
-        <v>1.1741207788803856E-2</v>
+        <v>6.0488931433860681E-18</v>
       </c>
       <c r="G249">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D250">
-        <v>-359650</v>
+        <v>480250</v>
       </c>
       <c r="E250">
-        <v>-7193</v>
+        <v>9605</v>
       </c>
       <c r="F250">
-        <v>2.0551829921478417E-18</v>
+        <v>9.8125689675177159E-3</v>
       </c>
       <c r="G250">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="251" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D251">
-        <v>-359600</v>
+        <v>480300</v>
       </c>
       <c r="E251">
-        <v>-7192</v>
+        <v>9606</v>
       </c>
       <c r="F251">
-        <v>-6.7243650671407222E-3</v>
+        <v>4.2982479400411154E-19</v>
       </c>
       <c r="G251">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D252">
-        <v>-359550</v>
+        <v>480350</v>
       </c>
       <c r="E252">
-        <v>-7191</v>
+        <v>9607</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1.0088420700126678E-2</v>
       </c>
       <c r="G252">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D253">
-        <v>-359500</v>
+        <v>480400</v>
       </c>
       <c r="E253">
-        <v>-7190</v>
+        <v>9608</v>
       </c>
       <c r="F253">
-        <v>-1.8502984556237525E-2</v>
+        <v>9.7181495568426348E-18</v>
       </c>
       <c r="G253">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D254">
-        <v>-320500</v>
+        <v>480450</v>
       </c>
       <c r="E254">
-        <v>-6410</v>
+        <v>9609</v>
       </c>
       <c r="F254">
-        <v>2.5815763611915671E-17</v>
+        <v>2.6041570734479489E-3</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D255">
-        <v>-320450</v>
+        <v>480500</v>
       </c>
       <c r="E255">
-        <v>-6409</v>
+        <v>9610</v>
       </c>
       <c r="F255">
-        <v>2.3508249212937437E-2</v>
+        <v>5.242111164154202E-17</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D256">
-        <v>-320400</v>
+        <v>519500</v>
       </c>
       <c r="E256">
-        <v>-6408</v>
+        <v>10390</v>
       </c>
       <c r="F256">
-        <v>-1.3708332532673466E-17</v>
+        <v>4.6101590155277634E-4</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="257" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D257">
-        <v>-320350</v>
+        <v>519550</v>
       </c>
       <c r="E257">
-        <v>-6407</v>
+        <v>10391</v>
       </c>
       <c r="F257">
-        <v>3.7134363045095479E-3</v>
+        <v>1.9877331059788723E-18</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="258" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D258">
-        <v>-320300</v>
+        <v>519600</v>
       </c>
       <c r="E258">
-        <v>-6406</v>
+        <v>10392</v>
       </c>
       <c r="F258">
-        <v>-1.5935374451648195E-17</v>
+        <v>8.4094941474802919E-3</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="259" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D259">
-        <v>-320250</v>
+        <v>519650</v>
       </c>
       <c r="E259">
-        <v>-6405</v>
+        <v>10393</v>
       </c>
       <c r="F259">
-        <v>-1.6009985103243505E-2</v>
+        <v>2.9182298520878296E-19</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="260" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D260">
-        <v>-320200</v>
+        <v>519700</v>
       </c>
       <c r="E260">
-        <v>-6404</v>
+        <v>10394</v>
       </c>
       <c r="F260">
-        <v>-3.257280225707253E-18</v>
+        <v>9.0145698117137102E-3</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="261" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D261">
-        <v>-320150</v>
+        <v>519750</v>
       </c>
       <c r="E261">
-        <v>-6403</v>
+        <v>10395</v>
       </c>
       <c r="F261">
-        <v>-1.9145657148184878E-2</v>
+        <v>2.4942128092438281E-18</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="262" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D262">
-        <v>-320100</v>
+        <v>519800</v>
       </c>
       <c r="E262">
-        <v>-6402</v>
+        <v>10396</v>
       </c>
       <c r="F262">
-        <v>3.5050215960879164E-18</v>
+        <v>6.2440776650796569E-3</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="263" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D263">
-        <v>-320050</v>
+        <v>519850</v>
       </c>
       <c r="E263">
-        <v>-6401</v>
+        <v>10397</v>
       </c>
       <c r="F263">
-        <v>-1.7121158644980608E-2</v>
+        <v>4.7820728610643146E-18</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="264" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D264">
-        <v>-320000</v>
+        <v>519900</v>
       </c>
       <c r="E264">
-        <v>-6400</v>
+        <v>10398</v>
       </c>
       <c r="F264">
-        <v>4.2871554628694219E-18</v>
+        <v>3.6944260381565224E-3</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="265" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D265">
-        <v>-319950</v>
+        <v>519950</v>
       </c>
       <c r="E265">
-        <v>-6399</v>
+        <v>10399</v>
       </c>
       <c r="F265">
-        <v>-1.7121158644980608E-2</v>
+        <v>6.3293185109907315E-18</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="266" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D266">
-        <v>-319900</v>
+        <v>520000</v>
       </c>
       <c r="E266">
-        <v>-6398</v>
+        <v>10400</v>
       </c>
       <c r="F266">
-        <v>2.1030129576527496E-18</v>
+        <v>2.7570386501326667E-3</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="267" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D267">
-        <v>-319850</v>
+        <v>520050</v>
       </c>
       <c r="E267">
-        <v>-6397</v>
+        <v>10401</v>
       </c>
       <c r="F267">
-        <v>-1.9145657148184878E-2</v>
+        <v>7.3842049294891874E-18</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="268" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D268">
-        <v>-319800</v>
+        <v>520100</v>
       </c>
       <c r="E268">
-        <v>-6396</v>
+        <v>10402</v>
       </c>
       <c r="F268">
-        <v>-1.0857600752357512E-18</v>
+        <v>3.6944260381565224E-3</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="269" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D269">
-        <v>-319750</v>
+        <v>520150</v>
       </c>
       <c r="E269">
-        <v>-6395</v>
+        <v>10403</v>
       </c>
       <c r="F269">
-        <v>-1.6009985103243505E-2</v>
+        <v>7.6513165777029031E-18</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="270" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D270">
-        <v>-319700</v>
+        <v>520200</v>
       </c>
       <c r="E270">
-        <v>-6394</v>
+        <v>10404</v>
       </c>
       <c r="F270">
-        <v>-2.2764820645211708E-18</v>
+        <v>6.2440776650796569E-3</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="271" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D271">
-        <v>-319650</v>
+        <v>520250</v>
       </c>
       <c r="E271">
-        <v>-6393</v>
+        <v>10405</v>
       </c>
       <c r="F271">
-        <v>3.7134363045095479E-3</v>
+        <v>5.6119788207986136E-18</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="272" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D272">
-        <v>-319600</v>
+        <v>520300</v>
       </c>
       <c r="E272">
-        <v>-6392</v>
+        <v>10406</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>9.0145698117137102E-3</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="273" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D273">
-        <v>-319550</v>
+        <v>520350</v>
       </c>
       <c r="E273">
-        <v>-6391</v>
+        <v>10407</v>
       </c>
       <c r="F273">
-        <v>2.3508249212937437E-2</v>
+        <v>9.7274328402927651E-19</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="274" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D274">
-        <v>-319500</v>
+        <v>520400</v>
       </c>
       <c r="E274">
-        <v>-6390</v>
+        <v>10408</v>
       </c>
       <c r="F274">
-        <v>-2.8684181791017413E-18</v>
+        <v>8.4094941474802919E-3</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="275" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D275">
-        <v>-280500</v>
+        <v>520450</v>
       </c>
       <c r="E275">
-        <v>-5610</v>
+        <v>10409</v>
       </c>
       <c r="F275">
-        <v>1.8068619936093381E-2</v>
+        <v>3.976470883920438E-17</v>
       </c>
       <c r="G275">
-        <v>270</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="276" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D276">
-        <v>-280450</v>
+        <v>520500</v>
       </c>
       <c r="E276">
-        <v>-5609</v>
+        <v>10410</v>
       </c>
       <c r="F276">
-        <v>-2.5464861919289247E-17</v>
+        <v>4.6101590155277634E-4</v>
       </c>
       <c r="G276">
-        <v>270</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="277" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D277">
-        <v>-280400</v>
+        <v>559500</v>
       </c>
       <c r="E277">
-        <v>-5608</v>
+        <v>11190</v>
       </c>
       <c r="F277">
-        <v>-2.9208669114911951E-2</v>
+        <v>1.9694993471822507E-18</v>
       </c>
       <c r="G277">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D278">
-        <v>-280350</v>
+        <v>559550</v>
       </c>
       <c r="E278">
-        <v>-5607</v>
+        <v>11191</v>
       </c>
       <c r="F278">
-        <v>1.8201947583867562E-17</v>
+        <v>6.8222436743742244E-3</v>
       </c>
       <c r="G278">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D279">
-        <v>-280300</v>
+        <v>559600</v>
       </c>
       <c r="E279">
-        <v>-5606</v>
+        <v>11192</v>
       </c>
       <c r="F279">
-        <v>8.2971571482727395E-4</v>
+        <v>6.7473946711374003E-19</v>
       </c>
       <c r="G279">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D280">
-        <v>-280250</v>
+        <v>559650</v>
       </c>
       <c r="E280">
-        <v>-5605</v>
+        <v>11193</v>
       </c>
       <c r="F280">
-        <v>1.4862383773934855E-17</v>
+        <v>8.3069261004049683E-3</v>
       </c>
       <c r="G280">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D281">
-        <v>-280200</v>
+        <v>559700</v>
       </c>
       <c r="E281">
-        <v>-5604</v>
+        <v>11194</v>
       </c>
       <c r="F281">
-        <v>2.1269012170682451E-2</v>
+        <v>1.9787318517966727E-18</v>
       </c>
       <c r="G281">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="282" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D282">
-        <v>-280150</v>
+        <v>559750</v>
       </c>
       <c r="E282">
-        <v>-5603</v>
+        <v>11195</v>
       </c>
       <c r="F282">
-        <v>1.8570323005944611E-18</v>
+        <v>5.8578238038541194E-3</v>
       </c>
       <c r="G282">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D283">
-        <v>-280100</v>
+        <v>559800</v>
       </c>
       <c r="E283">
-        <v>-5602</v>
+        <v>11196</v>
       </c>
       <c r="F283">
-        <v>2.3107790706753582E-2</v>
+        <v>4.2857008268129551E-18</v>
       </c>
       <c r="G283">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="284" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D284">
-        <v>-280050</v>
+        <v>559850</v>
       </c>
       <c r="E284">
-        <v>-5601</v>
+        <v>11197</v>
       </c>
       <c r="F284">
-        <v>-3.0897716881501987E-18</v>
+        <v>3.0287742176430756E-3</v>
       </c>
       <c r="G284">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D285">
-        <v>-280000</v>
+        <v>559900</v>
       </c>
       <c r="E285">
-        <v>-5600</v>
+        <v>11198</v>
       </c>
       <c r="F285">
-        <v>2.1833040428286841E-2</v>
+        <v>5.8175085545913815E-18</v>
       </c>
       <c r="G285">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="286" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D286">
-        <v>-279950</v>
+        <v>559950</v>
       </c>
       <c r="E286">
-        <v>-5599</v>
+        <v>11199</v>
       </c>
       <c r="F286">
-        <v>-2.3173287661126491E-18</v>
+        <v>1.4286838984804158E-3</v>
       </c>
       <c r="G286">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D287">
-        <v>-279900</v>
+        <v>560000</v>
       </c>
       <c r="E287">
-        <v>-5598</v>
+        <v>11200</v>
       </c>
       <c r="F287">
-        <v>2.3107790706753582E-2</v>
+        <v>6.9108545432595095E-18</v>
       </c>
       <c r="G287">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="288" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D288">
-        <v>-279850</v>
+        <v>560050</v>
       </c>
       <c r="E288">
-        <v>-5597</v>
+        <v>11201</v>
       </c>
       <c r="F288">
-        <v>7.4281292023778432E-19</v>
+        <v>1.4286838984804158E-3</v>
       </c>
       <c r="G288">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289">
-        <v>-279800</v>
+        <v>560100</v>
       </c>
       <c r="E289">
-        <v>-5596</v>
+        <v>11202</v>
       </c>
       <c r="F289">
-        <v>2.1269012170682451E-2</v>
+        <v>7.7566780727885082E-18</v>
       </c>
       <c r="G289">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290">
-        <v>-279750</v>
+        <v>560150</v>
       </c>
       <c r="E290">
-        <v>-5595</v>
+        <v>11203</v>
       </c>
       <c r="F290">
-        <v>2.4770639623224762E-18</v>
+        <v>3.0287742176430756E-3</v>
       </c>
       <c r="G290">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291">
-        <v>-279700</v>
+        <v>560200</v>
       </c>
       <c r="E291">
-        <v>-5594</v>
+        <v>11204</v>
       </c>
       <c r="F291">
-        <v>8.2971571482727395E-4</v>
+        <v>7.7142614882633184E-18</v>
       </c>
       <c r="G291">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292">
-        <v>-279650</v>
+        <v>560250</v>
       </c>
       <c r="E292">
-        <v>-5593</v>
+        <v>11205</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>5.8578238038541194E-3</v>
       </c>
       <c r="G292">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293">
-        <v>-279600</v>
+        <v>560300</v>
       </c>
       <c r="E293">
-        <v>-5592</v>
+        <v>11206</v>
       </c>
       <c r="F293">
-        <v>-2.9208669114911951E-2</v>
+        <v>4.9468296294916824E-18</v>
       </c>
       <c r="G293">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294">
-        <v>-279550</v>
+        <v>560350</v>
       </c>
       <c r="E294">
-        <v>-5591</v>
+        <v>11207</v>
       </c>
       <c r="F294">
-        <v>3.1831077399111559E-18</v>
+        <v>8.3069261004049683E-3</v>
       </c>
       <c r="G294">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295">
-        <v>-279500</v>
+        <v>560400</v>
       </c>
       <c r="E295">
-        <v>-5590</v>
+        <v>11208</v>
       </c>
       <c r="F295">
-        <v>1.8068619936093381E-2</v>
+        <v>8.998799812507956E-18</v>
       </c>
       <c r="G295">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296">
-        <v>-240500</v>
+        <v>560450</v>
       </c>
       <c r="E296">
-        <v>-4810</v>
+        <v>11209</v>
       </c>
       <c r="F296">
-        <v>-9.1789488848345128E-18</v>
+        <v>6.8222436743742244E-3</v>
       </c>
       <c r="G296">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297">
-        <v>-240450</v>
+        <v>560500</v>
       </c>
       <c r="E297">
-        <v>-4809</v>
+        <v>11210</v>
       </c>
       <c r="F297">
-        <v>-1.7808025964595069E-2</v>
+        <v>1.1816996083093503E-17</v>
       </c>
       <c r="G297">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298">
-        <v>-240400</v>
+        <v>599500</v>
       </c>
       <c r="E298">
-        <v>-4808</v>
+        <v>11990</v>
       </c>
       <c r="F298">
-        <v>2.4363834156150282E-17</v>
+        <v>5.3154371945849889E-3</v>
       </c>
       <c r="G298">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299">
-        <v>-240350</v>
+        <v>599550</v>
       </c>
       <c r="E299">
-        <v>-4807</v>
+        <v>11991</v>
       </c>
       <c r="F299">
-        <v>3.5801638454614516E-2</v>
+        <v>1.0012712463894077E-18</v>
       </c>
       <c r="G299">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300">
-        <v>-240300</v>
+        <v>599600</v>
       </c>
       <c r="E300">
-        <v>-4806</v>
+        <v>11992</v>
       </c>
       <c r="F300">
-        <v>-2.2535672250342427E-17</v>
+        <v>7.6287720303866513E-3</v>
       </c>
       <c r="G300">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301">
-        <v>-240250</v>
+        <v>599650</v>
       </c>
       <c r="E301">
-        <v>-4805</v>
+        <v>11993</v>
       </c>
       <c r="F301">
-        <v>-7.5870002824879532E-3</v>
+        <v>1.4845996888380539E-18</v>
       </c>
       <c r="G301">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302">
-        <v>-240200</v>
+        <v>599700</v>
       </c>
       <c r="E302">
-        <v>-4804</v>
+        <v>11994</v>
       </c>
       <c r="F302">
-        <v>-1.3302795246672197E-17</v>
+        <v>5.627929490752131E-3</v>
       </c>
       <c r="G302">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303">
-        <v>-240150</v>
+        <v>599750</v>
       </c>
       <c r="E303">
-        <v>-4803</v>
+        <v>11995</v>
       </c>
       <c r="F303">
-        <v>-2.8076832429127677E-2</v>
+        <v>3.8058506080480189E-18</v>
       </c>
       <c r="G303">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304">
-        <v>-240100</v>
+        <v>599800</v>
       </c>
       <c r="E304">
-        <v>-4802</v>
+        <v>11996</v>
       </c>
       <c r="F304">
-        <v>-9.1349687986290549E-19</v>
+        <v>2.6969199289234511E-3</v>
       </c>
       <c r="G304">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305">
-        <v>-240050</v>
+        <v>599850</v>
       </c>
       <c r="E305">
-        <v>-4801</v>
+        <v>11997</v>
       </c>
       <c r="F305">
-        <v>-2.8956224569453997E-2</v>
+        <v>5.3146159155413237E-18</v>
       </c>
       <c r="G305">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306">
-        <v>-240000</v>
+        <v>599900</v>
       </c>
       <c r="E306">
-        <v>-4800</v>
+        <v>11998</v>
       </c>
       <c r="F306">
-        <v>1.8232404288306215E-18</v>
+        <v>6.5044048580523031E-4</v>
       </c>
       <c r="G306">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307">
-        <v>-239950</v>
+        <v>599950</v>
       </c>
       <c r="E307">
-        <v>-4799</v>
+        <v>11999</v>
       </c>
       <c r="F307">
-        <v>-2.8956224569453997E-2</v>
+        <v>6.3055627249521254E-18</v>
       </c>
       <c r="G307">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308">
-        <v>-239900</v>
+        <v>600000</v>
       </c>
       <c r="E308">
-        <v>-4798</v>
+        <v>12000</v>
       </c>
       <c r="F308">
-        <v>-4.5674843993145274E-19</v>
+        <v>4.3290844601210206E-5</v>
       </c>
       <c r="G308">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309">
-        <v>-239850</v>
+        <v>600050</v>
       </c>
       <c r="E309">
-        <v>-4797</v>
+        <v>12001</v>
       </c>
       <c r="F309">
-        <v>-2.8076832429127677E-2</v>
+        <v>7.2063573999452866E-18</v>
       </c>
       <c r="G309">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310">
-        <v>-239800</v>
+        <v>600100</v>
       </c>
       <c r="E310">
-        <v>-4796</v>
+        <v>12002</v>
       </c>
       <c r="F310">
-        <v>-2.6605590493344396E-18</v>
+        <v>6.5044048580523031E-4</v>
       </c>
       <c r="G310">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311">
-        <v>-239750</v>
+        <v>600150</v>
       </c>
       <c r="E311">
-        <v>-4795</v>
+        <v>12003</v>
       </c>
       <c r="F311">
-        <v>-7.5870002824879532E-3</v>
+        <v>7.9719238733119852E-18</v>
       </c>
       <c r="G311">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312">
-        <v>-239700</v>
+        <v>600200</v>
       </c>
       <c r="E312">
-        <v>-4794</v>
+        <v>12004</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>2.6969199289234511E-3</v>
       </c>
       <c r="G312">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313">
-        <v>-239650</v>
+        <v>600250</v>
       </c>
       <c r="E313">
-        <v>-4793</v>
+        <v>12005</v>
       </c>
       <c r="F313">
-        <v>3.5801638454614516E-2</v>
+        <v>7.6117012160960378E-18</v>
       </c>
       <c r="G313">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314">
-        <v>-239600</v>
+        <v>600300</v>
       </c>
       <c r="E314">
-        <v>-4792</v>
+        <v>12006</v>
       </c>
       <c r="F314">
-        <v>-3.480547736592897E-18</v>
+        <v>5.627929490752131E-3</v>
       </c>
       <c r="G314">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315">
-        <v>-239550</v>
+        <v>600350</v>
       </c>
       <c r="E315">
-        <v>-4791</v>
+        <v>12007</v>
       </c>
       <c r="F315">
-        <v>-1.7808025964595069E-2</v>
+        <v>1.484974873936776E-17</v>
       </c>
       <c r="G315">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316">
-        <v>-239500</v>
+        <v>600400</v>
       </c>
       <c r="E316">
-        <v>-4790</v>
+        <v>12008</v>
       </c>
       <c r="F316">
-        <v>2.2947372212086282E-18</v>
+        <v>7.6287720303866513E-3</v>
       </c>
       <c r="G316">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317">
-        <v>-200500</v>
+        <v>600450</v>
       </c>
       <c r="E317">
-        <v>-4010</v>
+        <v>12009</v>
       </c>
       <c r="F317">
-        <v>-3.2243113783865175E-3</v>
+        <v>4.0050849855576308E-18</v>
       </c>
       <c r="G317">
-        <v>90</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318">
-        <v>-200450</v>
+        <v>600500</v>
       </c>
       <c r="E318">
-        <v>-4009</v>
+        <v>12010</v>
       </c>
       <c r="F318">
-        <v>6.8299572260831721E-18</v>
+        <v>5.3154371945849889E-3</v>
       </c>
       <c r="G318">
-        <v>90</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319">
-        <v>-200400</v>
+        <v>639500</v>
       </c>
       <c r="E319">
-        <v>-4008</v>
+        <v>12790</v>
       </c>
       <c r="F319">
-        <v>1.7064154383224762E-2</v>
+        <v>1.2688127374445573E-18</v>
       </c>
       <c r="G319">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320">
-        <v>-200350</v>
+        <v>639550</v>
       </c>
       <c r="E320">
-        <v>-4007</v>
+        <v>12791</v>
       </c>
       <c r="F320">
-        <v>-2.2527193493049726E-17</v>
+        <v>6.9446763769875708E-3</v>
       </c>
       <c r="G320">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321">
-        <v>-200300</v>
+        <v>639600</v>
       </c>
       <c r="E321">
-        <v>-4006</v>
+        <v>12792</v>
       </c>
       <c r="F321">
-        <v>-4.3657085663308282E-2</v>
+        <v>1.0154038672808214E-18</v>
       </c>
       <c r="G321">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322">
-        <v>-200250</v>
+        <v>639650</v>
       </c>
       <c r="E322">
-        <v>-4005</v>
+        <v>12793</v>
       </c>
       <c r="F322">
-        <v>2.6609424521816907E-17</v>
+        <v>5.4784346199094718E-3</v>
       </c>
       <c r="G322">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323">
-        <v>-200200</v>
+        <v>639700</v>
       </c>
       <c r="E323">
-        <v>-4004</v>
+        <v>12794</v>
       </c>
       <c r="F323">
-        <v>1.7821268907371089E-2</v>
+        <v>3.3455208987039541E-18</v>
       </c>
       <c r="G323">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324">
-        <v>-200150</v>
+        <v>639750</v>
       </c>
       <c r="E324">
-        <v>-4003</v>
+        <v>12795</v>
       </c>
       <c r="F324">
-        <v>1.1407309434418174E-17</v>
+        <v>2.5798781347977839E-3</v>
       </c>
       <c r="G324">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325">
-        <v>-200100</v>
+        <v>639800</v>
       </c>
       <c r="E325">
-        <v>-4002</v>
+        <v>12796</v>
       </c>
       <c r="F325">
-        <v>3.7587835454074001E-2</v>
+        <v>4.852692434811524E-18</v>
       </c>
       <c r="G325">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326">
-        <v>-200050</v>
+        <v>639850</v>
       </c>
       <c r="E326">
-        <v>-4001</v>
+        <v>12797</v>
       </c>
       <c r="F326">
-        <v>7.4087720048326066E-19</v>
+        <v>2.4411778319447178E-4</v>
       </c>
       <c r="G326">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327">
-        <v>-200000</v>
+        <v>639900</v>
       </c>
       <c r="E327">
-        <v>-4000</v>
+        <v>12798</v>
       </c>
       <c r="F327">
-        <v>3.8158409126662546E-2</v>
+        <v>5.7169852694789475E-18</v>
       </c>
       <c r="G327">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328">
-        <v>-199950</v>
+        <v>639950</v>
       </c>
       <c r="E328">
-        <v>-3999</v>
+        <v>12799</v>
       </c>
       <c r="F328">
-        <v>4.9391813365550707E-19</v>
+        <v>9.3521345869116931E-4</v>
       </c>
       <c r="G328">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329">
-        <v>-199900</v>
+        <v>640000</v>
       </c>
       <c r="E329">
-        <v>-3998</v>
+        <v>12800</v>
       </c>
       <c r="F329">
-        <v>3.7587835454074001E-2</v>
+        <v>6.4526836116761278E-18</v>
       </c>
       <c r="G329">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330">
-        <v>-199850</v>
+        <v>640050</v>
       </c>
       <c r="E330">
-        <v>-3997</v>
+        <v>12801</v>
       </c>
       <c r="F330">
-        <v>2.8518273586045434E-18</v>
+        <v>9.3521345869116931E-4</v>
       </c>
       <c r="G330">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331">
-        <v>-199800</v>
+        <v>640100</v>
       </c>
       <c r="E331">
-        <v>-3996</v>
+        <v>12802</v>
       </c>
       <c r="F331">
-        <v>1.7821268907371089E-2</v>
+        <v>7.3504096321872184E-18</v>
       </c>
       <c r="G331">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332">
-        <v>-199750</v>
+        <v>640150</v>
       </c>
       <c r="E332">
-        <v>-3995</v>
+        <v>12803</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>2.4411778319447178E-4</v>
       </c>
       <c r="G332">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333">
-        <v>-199700</v>
+        <v>640200</v>
       </c>
       <c r="E333">
-        <v>-3994</v>
+        <v>12804</v>
       </c>
       <c r="F333">
-        <v>-4.3657085663308282E-2</v>
+        <v>8.0878207246858739E-18</v>
       </c>
       <c r="G333">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334">
-        <v>-199650</v>
+        <v>640250</v>
       </c>
       <c r="E334">
-        <v>-3993</v>
+        <v>12805</v>
       </c>
       <c r="F334">
-        <v>3.7545322488416213E-18</v>
+        <v>2.5798781347977839E-3</v>
       </c>
       <c r="G334">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335">
-        <v>-199600</v>
+        <v>640300</v>
       </c>
       <c r="E335">
-        <v>-3992</v>
+        <v>12806</v>
       </c>
       <c r="F335">
-        <v>1.7064154383224762E-2</v>
+        <v>2.6770930977058475E-17</v>
       </c>
       <c r="G335">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336">
-        <v>-199550</v>
+        <v>640350</v>
       </c>
       <c r="E336">
-        <v>-3991</v>
+        <v>12807</v>
       </c>
       <c r="F336">
-        <v>-1.9514163503094777E-18</v>
+        <v>5.4784346199094718E-3</v>
       </c>
       <c r="G336">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337">
-        <v>-199500</v>
+        <v>640400</v>
       </c>
       <c r="E337">
-        <v>-3990</v>
+        <v>12808</v>
       </c>
       <c r="F337">
-        <v>-3.2243113783865175E-3</v>
+        <v>3.0462116018424642E-18</v>
       </c>
       <c r="G337">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338">
-        <v>-160500</v>
+        <v>640450</v>
       </c>
       <c r="E338">
-        <v>-3210</v>
+        <v>12809</v>
       </c>
       <c r="F338">
-        <v>5.7957730989137718E-19</v>
+        <v>6.9446763769875708E-3</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339">
-        <v>-160450</v>
+        <v>640500</v>
       </c>
       <c r="E339">
-        <v>-3209</v>
+        <v>12810</v>
       </c>
       <c r="F339">
-        <v>2.2055045641650767E-3</v>
+        <v>6.771276624329863E-18</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -5118,587 +5118,587 @@
     </row>
     <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340">
-        <v>-160400</v>
+        <v>679500</v>
       </c>
       <c r="E340">
-        <v>-3208</v>
+        <v>13590</v>
       </c>
       <c r="F340">
-        <v>-4.6616809097772607E-18</v>
+        <v>6.2361726511394721E-3</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341">
-        <v>-160350</v>
+        <v>679550</v>
       </c>
       <c r="E341">
-        <v>-3207</v>
+        <v>13591</v>
       </c>
       <c r="F341">
-        <v>-1.5745057252236863E-2</v>
+        <v>5.7420882509332535E-19</v>
       </c>
       <c r="G341">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342">
-        <v>-160300</v>
+        <v>679600</v>
       </c>
       <c r="E342">
-        <v>-3206</v>
+        <v>13592</v>
       </c>
       <c r="F342">
-        <v>1.9984075395992446E-17</v>
+        <v>5.3582419891605605E-3</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343">
-        <v>-160250</v>
+        <v>679650</v>
       </c>
       <c r="E343">
-        <v>-3205</v>
+        <v>13593</v>
       </c>
       <c r="F343">
-        <v>5.3511687023914283E-2</v>
+        <v>2.9020588608012475E-18</v>
       </c>
       <c r="G343">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344">
-        <v>-160200</v>
+        <v>679700</v>
       </c>
       <c r="E344">
-        <v>-3204</v>
+        <v>13594</v>
       </c>
       <c r="F344">
-        <v>-3.0367795475920533E-17</v>
+        <v>2.5973965858130913E-3</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345">
-        <v>-160150</v>
+        <v>679750</v>
       </c>
       <c r="E345">
-        <v>-3203</v>
+        <v>13595</v>
       </c>
       <c r="F345">
-        <v>-3.4190420939178075E-2</v>
+        <v>4.4354210526037258E-18</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346">
-        <v>-160100</v>
+        <v>679800</v>
       </c>
       <c r="E346">
-        <v>-3202</v>
+        <v>13596</v>
       </c>
       <c r="F346">
-        <v>-9.4478330222319376E-18</v>
+        <v>8.5733148390235403E-5</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347">
-        <v>-160050</v>
+        <v>679850</v>
       </c>
       <c r="E347">
-        <v>-3201</v>
+        <v>13597</v>
       </c>
       <c r="F347">
-        <v>-5.2380631077855414E-2</v>
+        <v>5.1991223946695888E-18</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348">
-        <v>-160000</v>
+        <v>679900</v>
       </c>
       <c r="E348">
-        <v>-3200</v>
+        <v>13598</v>
       </c>
       <c r="F348">
-        <v>-1.7610286673260701E-18</v>
+        <v>1.4283896273868944E-3</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349">
-        <v>-159950</v>
+        <v>679950</v>
       </c>
       <c r="E349">
-        <v>-3199</v>
+        <v>13599</v>
       </c>
       <c r="F349">
-        <v>-5.2380631077855414E-2</v>
+        <v>5.7089398349275763E-18</v>
       </c>
       <c r="G349">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350">
-        <v>-159900</v>
+        <v>680000</v>
       </c>
       <c r="E350">
-        <v>-3198</v>
+        <v>13600</v>
       </c>
       <c r="F350">
-        <v>-3.1492776740773128E-18</v>
+        <v>1.9133132213290216E-3</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351">
-        <v>-159850</v>
+        <v>680050</v>
       </c>
       <c r="E351">
-        <v>-3197</v>
+        <v>13601</v>
       </c>
       <c r="F351">
-        <v>-3.4190420939178075E-2</v>
+        <v>6.422557314293524E-18</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352">
-        <v>-159800</v>
+        <v>680100</v>
       </c>
       <c r="E352">
-        <v>-3196</v>
+        <v>13602</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>1.4283896273868944E-3</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353">
-        <v>-159750</v>
+        <v>680150</v>
       </c>
       <c r="E353">
-        <v>-3195</v>
+        <v>13603</v>
       </c>
       <c r="F353">
-        <v>5.3511687023914283E-2</v>
+        <v>7.4273177066708402E-18</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354">
-        <v>-159700</v>
+        <v>680200</v>
       </c>
       <c r="E354">
-        <v>-3194</v>
+        <v>13604</v>
       </c>
       <c r="F354">
-        <v>-3.9968150791984892E-18</v>
+        <v>8.5733148390235403E-5</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355">
-        <v>-159650</v>
+        <v>680250</v>
       </c>
       <c r="E355">
-        <v>-3193</v>
+        <v>13605</v>
       </c>
       <c r="F355">
-        <v>-1.5745057252236863E-2</v>
+        <v>2.9576946422963632E-17</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356">
-        <v>-159600</v>
+        <v>680300</v>
       </c>
       <c r="E356">
-        <v>-3192</v>
+        <v>13606</v>
       </c>
       <c r="F356">
-        <v>1.5538936365924203E-18</v>
+        <v>2.5973965858130913E-3</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357">
-        <v>-159550</v>
+        <v>680350</v>
       </c>
       <c r="E357">
-        <v>-3191</v>
+        <v>13607</v>
       </c>
       <c r="F357">
-        <v>2.2055045641650767E-3</v>
+        <v>6.9649412659229934E-18</v>
       </c>
       <c r="G357">
-        <v>0</v>
+        <v>270.00000000000011</v>
       </c>
     </row>
     <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358">
-        <v>-159500</v>
+        <v>680400</v>
       </c>
       <c r="E358">
-        <v>-3190</v>
+        <v>13608</v>
       </c>
       <c r="F358">
-        <v>-2.4839027566773312E-19</v>
+        <v>5.3582419891605605E-3</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359">
-        <v>-120500</v>
+        <v>680450</v>
       </c>
       <c r="E359">
-        <v>-2410</v>
+        <v>13609</v>
       </c>
       <c r="F359">
-        <v>7.0930448404292931E-5</v>
+        <v>2.2982864295655645E-18</v>
       </c>
       <c r="G359">
-        <v>270</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360">
-        <v>-120450</v>
+        <v>680500</v>
       </c>
       <c r="E360">
-        <v>-2409</v>
+        <v>13610</v>
       </c>
       <c r="F360">
-        <v>-2.3536395895945721E-19</v>
+        <v>6.2361726511394721E-3</v>
       </c>
       <c r="G360">
-        <v>270</v>
+        <v>90.000000000000099</v>
       </c>
     </row>
     <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361">
-        <v>-120400</v>
+        <v>719500</v>
       </c>
       <c r="E361">
-        <v>-2408</v>
+        <v>14390</v>
       </c>
       <c r="F361">
-        <v>-1.2885304552132039E-3</v>
+        <v>1.6435524856998532E-19</v>
       </c>
       <c r="G361">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362">
-        <v>-120350</v>
+        <v>719550</v>
       </c>
       <c r="E362">
-        <v>-2407</v>
+        <v>14391</v>
       </c>
       <c r="F362">
-        <v>2.7804044791518468E-18</v>
+        <v>5.2327761212552244E-3</v>
       </c>
       <c r="G362">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363">
-        <v>-120300</v>
+        <v>719600</v>
       </c>
       <c r="E363">
-        <v>-2406</v>
+        <v>14392</v>
       </c>
       <c r="F363">
-        <v>1.3700430140976799E-2</v>
+        <v>2.4719174475743829E-18</v>
       </c>
       <c r="G363">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364">
-        <v>-120250</v>
+        <v>719650</v>
       </c>
       <c r="E364">
-        <v>-2405</v>
+        <v>14393</v>
       </c>
       <c r="F364">
-        <v>-1.6764700725640376E-17</v>
+        <v>2.6945038939041343E-3</v>
       </c>
       <c r="G364">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365">
-        <v>-120200</v>
+        <v>719700</v>
       </c>
       <c r="E365">
-        <v>-2404</v>
+        <v>14394</v>
       </c>
       <c r="F365">
-        <v>-6.6993584135588327E-2</v>
+        <v>4.0555672226124615E-18</v>
       </c>
       <c r="G365">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366">
-        <v>-120150</v>
+        <v>719750</v>
       </c>
       <c r="E366">
-        <v>-2403</v>
+        <v>14395</v>
       </c>
       <c r="F366">
-        <v>3.3853586035657247E-17</v>
+        <v>9.1733507747547197E-5</v>
       </c>
       <c r="G366">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367">
-        <v>-120100</v>
+        <v>719800</v>
       </c>
       <c r="E367">
-        <v>-2402</v>
+        <v>14396</v>
       </c>
       <c r="F367">
-        <v>6.3365164264671162E-2</v>
+        <v>4.7623981897392027E-18</v>
       </c>
       <c r="G367">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368">
-        <v>-120050</v>
+        <v>719850</v>
       </c>
       <c r="E368">
-        <v>-2401</v>
+        <v>14397</v>
       </c>
       <c r="F368">
-        <v>7.9315285571341991E-18</v>
+        <v>1.6547798362131401E-3</v>
       </c>
       <c r="G368">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369">
-        <v>-120000</v>
+        <v>719900</v>
       </c>
       <c r="E369">
-        <v>-2400</v>
+        <v>14398</v>
       </c>
       <c r="F369">
-        <v>7.8635985715017648E-2</v>
+        <v>5.0604820536631764E-18</v>
       </c>
       <c r="G369">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370">
-        <v>-119950</v>
+        <v>719950</v>
       </c>
       <c r="E370">
-        <v>-2399</v>
+        <v>14399</v>
       </c>
       <c r="F370">
-        <v>3.9657642785670995E-18</v>
+        <v>2.4667052775862262E-3</v>
       </c>
       <c r="G370">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371">
-        <v>-119900</v>
+        <v>720000</v>
       </c>
       <c r="E371">
-        <v>-2398</v>
+        <v>14400</v>
       </c>
       <c r="F371">
-        <v>6.3365164264671162E-2</v>
+        <v>5.4793613985441065E-18</v>
       </c>
       <c r="G371">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372">
-        <v>-119850</v>
+        <v>720050</v>
       </c>
       <c r="E372">
-        <v>-2397</v>
+        <v>14401</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>2.4667052775862262E-3</v>
       </c>
       <c r="G372">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373">
-        <v>-119800</v>
+        <v>720100</v>
       </c>
       <c r="E373">
-        <v>-2396</v>
+        <v>14402</v>
       </c>
       <c r="F373">
-        <v>-6.6993584135588327E-2</v>
+        <v>6.3256025670789705E-18</v>
       </c>
       <c r="G373">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374">
-        <v>-119750</v>
+        <v>720150</v>
       </c>
       <c r="E374">
-        <v>-2395</v>
+        <v>14403</v>
       </c>
       <c r="F374">
-        <v>4.1911751814100941E-18</v>
+        <v>1.6547798362131401E-3</v>
       </c>
       <c r="G374">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375">
-        <v>-119700</v>
+        <v>720200</v>
       </c>
       <c r="E375">
-        <v>-2394</v>
+        <v>14404</v>
       </c>
       <c r="F375">
-        <v>1.3700430140976799E-2</v>
+        <v>2.7220581334833003E-17</v>
       </c>
       <c r="G375">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376">
-        <v>-119650</v>
+        <v>720250</v>
       </c>
       <c r="E376">
-        <v>-2393</v>
+        <v>14405</v>
       </c>
       <c r="F376">
-        <v>-1.1121617916607389E-18</v>
+        <v>9.1733507747547197E-5</v>
       </c>
       <c r="G376">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377">
-        <v>-119600</v>
+        <v>720300</v>
       </c>
       <c r="E377">
-        <v>-2392</v>
+        <v>14406</v>
       </c>
       <c r="F377">
-        <v>-1.2885304552132039E-3</v>
+        <v>8.1111344452249231E-18</v>
       </c>
       <c r="G377">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378">
-        <v>-119550</v>
+        <v>720350</v>
       </c>
       <c r="E378">
-        <v>-2391</v>
+        <v>14407</v>
       </c>
       <c r="F378">
-        <v>1.176819794797286E-19</v>
+        <v>2.6945038939041343E-3</v>
       </c>
       <c r="G378">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379">
-        <v>-119500</v>
+        <v>720400</v>
       </c>
       <c r="E379">
-        <v>-2390</v>
+        <v>14408</v>
       </c>
       <c r="F379">
-        <v>7.0930448404292931E-5</v>
+        <v>7.9151334169664827E-18</v>
       </c>
       <c r="G379">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380">
-        <v>-80500</v>
+        <v>720450</v>
       </c>
       <c r="E380">
-        <v>-1610</v>
+        <v>14409</v>
       </c>
       <c r="F380">
-        <v>-1.7114220650678439E-21</v>
+        <v>5.2327761212552244E-3</v>
       </c>
       <c r="G380">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381">
-        <v>-80450</v>
+        <v>720500</v>
       </c>
       <c r="E381">
-        <v>-1609</v>
+        <v>14410</v>
       </c>
       <c r="F381">
-        <v>-1.6171270440685422E-5</v>
+        <v>5.7524336999494867E-19</v>
       </c>
       <c r="G381">
         <v>180</v>
@@ -5706,587 +5706,587 @@
     </row>
     <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382">
-        <v>-80400</v>
+        <v>759500</v>
       </c>
       <c r="E382">
-        <v>-1608</v>
+        <v>15190</v>
       </c>
       <c r="F382">
-        <v>6.1612205873709894E-20</v>
+        <v>5.0788830183742389E-3</v>
       </c>
       <c r="G382">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383">
-        <v>-80350</v>
+        <v>759550</v>
       </c>
       <c r="E383">
-        <v>-1607</v>
+        <v>15191</v>
       </c>
       <c r="F383">
-        <v>5.532235370990299E-4</v>
+        <v>2.0525384743451087E-18</v>
       </c>
       <c r="G383">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384">
-        <v>-80300</v>
+        <v>759600</v>
       </c>
       <c r="E384">
-        <v>-1606</v>
+        <v>15192</v>
       </c>
       <c r="F384">
-        <v>-1.2925700455982085E-18</v>
+        <v>2.8325870986500635E-3</v>
       </c>
       <c r="G384">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385">
-        <v>-80250</v>
+        <v>759650</v>
       </c>
       <c r="E385">
-        <v>-1605</v>
+        <v>15193</v>
       </c>
       <c r="F385">
-        <v>-1.0645592436763862E-2</v>
+        <v>3.7028397120762156E-18</v>
       </c>
       <c r="G385">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386">
-        <v>-80200</v>
+        <v>759700</v>
       </c>
       <c r="E386">
-        <v>-1604</v>
+        <v>15194</v>
       </c>
       <c r="F386">
-        <v>1.2863355324959396E-17</v>
+        <v>2.0604201962690706E-4</v>
       </c>
       <c r="G386">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387">
-        <v>-80150</v>
+        <v>759750</v>
       </c>
       <c r="E387">
-        <v>-1603</v>
+        <v>15195</v>
       </c>
       <c r="F387">
-        <v>8.8419298273681377E-2</v>
+        <v>4.3988892834654117E-18</v>
       </c>
       <c r="G387">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388">
-        <v>-80100</v>
+        <v>759800</v>
       </c>
       <c r="E388">
-        <v>-1602</v>
+        <v>15196</v>
       </c>
       <c r="F388">
-        <v>-3.7380912180906256E-17</v>
+        <v>1.7043308953031589E-3</v>
       </c>
       <c r="G388">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389">
-        <v>-80050</v>
+        <v>759850</v>
       </c>
       <c r="E389">
-        <v>-1601</v>
+        <v>15197</v>
       </c>
       <c r="F389">
-        <v>-0.12749264030929783</v>
+        <v>4.5299902486330253E-18</v>
       </c>
       <c r="G389">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390">
-        <v>-80000</v>
+        <v>759900</v>
       </c>
       <c r="E390">
-        <v>-1600</v>
+        <v>15198</v>
       </c>
       <c r="F390">
-        <v>-7.6462734391813716E-18</v>
+        <v>2.7371676666030414E-3</v>
       </c>
       <c r="G390">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391">
-        <v>-79950</v>
+        <v>759950</v>
       </c>
       <c r="E391">
-        <v>-1599</v>
+        <v>15199</v>
       </c>
       <c r="F391">
-        <v>-0.12749264030929783</v>
+        <v>4.6469779813401655E-18</v>
       </c>
       <c r="G391">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392">
-        <v>-79900</v>
+        <v>760000</v>
       </c>
       <c r="E392">
-        <v>-1598</v>
+        <v>15200</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>3.0510965402009049E-3</v>
       </c>
       <c r="G392">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393">
-        <v>-79850</v>
+        <v>760050</v>
       </c>
       <c r="E393">
-        <v>-1597</v>
+        <v>15201</v>
       </c>
       <c r="F393">
-        <v>8.8419298273681377E-2</v>
+        <v>5.163308868155739E-18</v>
       </c>
       <c r="G393">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394">
-        <v>-79800</v>
+        <v>760100</v>
       </c>
       <c r="E394">
-        <v>-1596</v>
+        <v>15202</v>
       </c>
       <c r="F394">
-        <v>-4.287785108319799E-18</v>
+        <v>2.7371676666030414E-3</v>
       </c>
       <c r="G394">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395">
-        <v>-79750</v>
+        <v>760150</v>
       </c>
       <c r="E395">
-        <v>-1595</v>
+        <v>15203</v>
       </c>
       <c r="F395">
-        <v>-1.0645592436763862E-2</v>
+        <v>2.2655675294070641E-17</v>
       </c>
       <c r="G395">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396">
-        <v>-79700</v>
+        <v>760200</v>
       </c>
       <c r="E396">
-        <v>-1594</v>
+        <v>15204</v>
       </c>
       <c r="F396">
-        <v>6.4628502279910426E-19</v>
+        <v>1.7043308953031589E-3</v>
       </c>
       <c r="G396">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397">
-        <v>-79650</v>
+        <v>760250</v>
       </c>
       <c r="E397">
-        <v>-1593</v>
+        <v>15205</v>
       </c>
       <c r="F397">
-        <v>5.532235370990299E-4</v>
+        <v>7.5409530573692761E-18</v>
       </c>
       <c r="G397">
-        <v>180</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398">
-        <v>-79600</v>
+        <v>760300</v>
       </c>
       <c r="E398">
-        <v>-1592</v>
+        <v>15206</v>
       </c>
       <c r="F398">
-        <v>-3.6967323524225926E-20</v>
+        <v>2.0604201962690706E-4</v>
       </c>
       <c r="G398">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399">
-        <v>-79550</v>
+        <v>760350</v>
       </c>
       <c r="E399">
-        <v>-1591</v>
+        <v>15207</v>
       </c>
       <c r="F399">
-        <v>-1.6171270440685422E-5</v>
+        <v>9.8804777277535821E-18</v>
       </c>
       <c r="G399">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400">
-        <v>-79500</v>
+        <v>760400</v>
       </c>
       <c r="E400">
-        <v>-1590</v>
+        <v>15208</v>
       </c>
       <c r="F400">
-        <v>1.1409480433785626E-21</v>
+        <v>2.8325870986500635E-3</v>
       </c>
       <c r="G400">
-        <v>180</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401">
-        <v>-40500</v>
+        <v>760450</v>
       </c>
       <c r="E401">
-        <v>-810</v>
+        <v>15209</v>
       </c>
       <c r="F401">
-        <v>-5.2200744691209783E-9</v>
+        <v>5.7471077281663051E-18</v>
       </c>
       <c r="G401">
-        <v>90</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402">
-        <v>-40450</v>
+        <v>760500</v>
       </c>
       <c r="E402">
-        <v>-809</v>
+        <v>15210</v>
       </c>
       <c r="F402">
-        <v>4.5013256900899761E-23</v>
+        <v>5.0788830183742389E-3</v>
       </c>
       <c r="G402">
-        <v>90</v>
+        <v>269.99999999999989</v>
       </c>
     </row>
     <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403">
-        <v>-40400</v>
+        <v>799500</v>
       </c>
       <c r="E403">
-        <v>-808</v>
+        <v>15990</v>
       </c>
       <c r="F403">
-        <v>9.307666731131497E-7</v>
+        <v>1.6429588234568121E-18</v>
       </c>
       <c r="G403">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404">
-        <v>-40350</v>
+        <v>799550</v>
       </c>
       <c r="E404">
-        <v>-807</v>
+        <v>15991</v>
       </c>
       <c r="F404">
-        <v>-5.1242218250960979E-21</v>
+        <v>2.9837430534156448E-3</v>
       </c>
       <c r="G404">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405">
-        <v>-40300</v>
+        <v>799600</v>
       </c>
       <c r="E405">
-        <v>-806</v>
+        <v>15992</v>
       </c>
       <c r="F405">
-        <v>-1.0266040090486617E-4</v>
+        <v>3.3672877633042008E-18</v>
       </c>
       <c r="G405">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406">
-        <v>-40250</v>
+        <v>799650</v>
       </c>
       <c r="E406">
-        <v>-805</v>
+        <v>15993</v>
       </c>
       <c r="F406">
-        <v>3.1630714012917474E-19</v>
+        <v>3.9048502831011953E-4</v>
       </c>
       <c r="G406">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407">
-        <v>-40200</v>
+        <v>799700</v>
       </c>
       <c r="E407">
-        <v>-804</v>
+        <v>15994</v>
       </c>
       <c r="F407">
-        <v>5.9873004755993881E-3</v>
+        <v>4.0942506331450584E-18</v>
       </c>
       <c r="G407">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408">
-        <v>-40150</v>
+        <v>799750</v>
       </c>
       <c r="E408">
-        <v>-803</v>
+        <v>15995</v>
       </c>
       <c r="F408">
-        <v>-8.0876267303357149E-18</v>
+        <v>1.6365179977311675E-3</v>
       </c>
       <c r="G408">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409">
-        <v>-40100</v>
+        <v>799800</v>
       </c>
       <c r="E409">
-        <v>-802</v>
+        <v>15996</v>
       </c>
       <c r="F409">
-        <v>-0.13415495908977204</v>
+        <v>4.1120832818779531E-18</v>
       </c>
       <c r="G409">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410">
-        <v>-40050</v>
+        <v>799850</v>
       </c>
       <c r="E410">
-        <v>-801</v>
+        <v>15997</v>
       </c>
       <c r="F410">
-        <v>4.2441438431857801E-17</v>
+        <v>2.8240864935294464E-3</v>
       </c>
       <c r="G410">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411">
-        <v>-40000</v>
+        <v>799900</v>
       </c>
       <c r="E411">
-        <v>-800</v>
+        <v>15998</v>
       </c>
       <c r="F411">
-        <v>0.35612806042162692</v>
+        <v>3.9655672268122034E-18</v>
       </c>
       <c r="G411">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412">
-        <v>-39950</v>
+        <v>799950</v>
       </c>
       <c r="E412">
-        <v>-799</v>
+        <v>15999</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>3.3330885825448098E-3</v>
       </c>
       <c r="G412">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413">
-        <v>-39900</v>
+        <v>800000</v>
       </c>
       <c r="E413">
-        <v>-798</v>
+        <v>16000</v>
       </c>
       <c r="F413">
-        <v>-0.13415495908977204</v>
+        <v>4.1174535402853787E-18</v>
       </c>
       <c r="G413">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414">
-        <v>-39850</v>
+        <v>800050</v>
       </c>
       <c r="E414">
-        <v>-797</v>
+        <v>16001</v>
       </c>
       <c r="F414">
-        <v>4.0438133651678575E-18</v>
+        <v>3.3330885825448098E-3</v>
       </c>
       <c r="G414">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415">
-        <v>-39800</v>
+        <v>800100</v>
       </c>
       <c r="E415">
-        <v>-796</v>
+        <v>16002</v>
       </c>
       <c r="F415">
-        <v>5.9873004755993881E-3</v>
+        <v>1.7629197320546392E-17</v>
       </c>
       <c r="G415">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416">
-        <v>-39750</v>
+        <v>800150</v>
       </c>
       <c r="E416">
-        <v>-795</v>
+        <v>16003</v>
       </c>
       <c r="F416">
-        <v>-2.1087142675278316E-19</v>
+        <v>2.8240864935294464E-3</v>
       </c>
       <c r="G416">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417">
-        <v>-39700</v>
+        <v>800200</v>
       </c>
       <c r="E417">
-        <v>-794</v>
+        <v>16004</v>
       </c>
       <c r="F417">
-        <v>-1.0266040090486617E-4</v>
+        <v>6.1681249228169297E-18</v>
       </c>
       <c r="G417">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418">
-        <v>-39650</v>
+        <v>800250</v>
       </c>
       <c r="E418">
-        <v>-793</v>
+        <v>16005</v>
       </c>
       <c r="F418">
-        <v>3.8431663688220731E-21</v>
+        <v>1.6365179977311675E-3</v>
       </c>
       <c r="G418">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419">
-        <v>-39600</v>
+        <v>800300</v>
       </c>
       <c r="E419">
-        <v>-792</v>
+        <v>16006</v>
       </c>
       <c r="F419">
-        <v>9.307666731131497E-7</v>
+        <v>9.3641996810562065E-18</v>
       </c>
       <c r="G419">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420">
-        <v>-39550</v>
+        <v>800350</v>
       </c>
       <c r="E420">
-        <v>-791</v>
+        <v>16007</v>
       </c>
       <c r="F420">
-        <v>-3.6010605520719808E-23</v>
+        <v>3.9048502831011953E-4</v>
       </c>
       <c r="G420">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421">
-        <v>-39500</v>
+        <v>800400</v>
       </c>
       <c r="E421">
-        <v>-790</v>
+        <v>16008</v>
       </c>
       <c r="F421">
-        <v>-5.2200744691209783E-9</v>
+        <v>7.8570047810431367E-18</v>
       </c>
       <c r="G421">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422">
-        <v>-50</v>
+        <v>800450</v>
       </c>
       <c r="E422">
-        <v>-1</v>
+        <v>16009</v>
       </c>
       <c r="F422">
-        <v>0.45</v>
+        <v>2.9837430534156448E-3</v>
       </c>
       <c r="G422">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423">
-        <v>0</v>
+        <v>800500</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>16010</v>
       </c>
       <c r="F423">
-        <v>0.5</v>
+        <v>1.4461359288869473E-17</v>
       </c>
       <c r="G423">
         <v>0</v>

--- a/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Analytical_model_data.xlsx
+++ b/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Analytical_model_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enes_\Desktop\Research League- Fall\Summer2019\IMMD\simulation\VerificationOfAnalyticalModel\From Scratch\Verification SA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\IMMD-Enes\IMMD\simulation\VerificationOfAnalyticalModel\From Scratch\Verification SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
